--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/comparison_results_mistral_CoT_dbpedia_wikidata.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata/comparison_results_mistral_CoT_dbpedia_wikidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,77 +558,77 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>How many films did Leonardo DiCaprio star in?</t>
+          <t>What is the highest mountain?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['http://www.wikidata.org/entity/Q123374100']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['17450', 'http://www.wikidata.org/entity/Q123374100']</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>How many films did Leonardo DiCaprio star in?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['1986-02-28T00:00:00Z']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['http://www.wikidata.org/entity/statement/q53713-5CBE6C03-5BB4-44B8-A01F-639E1678F280']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
+          <t>['1986-02-28T00:00:00Z']</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
+          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
+          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,117 +638,117 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>For which label did Elvis record his first album?</t>
+          <t>Who developed Minecraft?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q202585']</t>
+          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3415083']</t>
+          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>For which label did Elvis record his first album?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['http://www.wikidata.org/entity/Q202585']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['http://www.wikidata.org/entity/Q3415083']</t>
         </is>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Give me a list of all trumpet players that were bandleaders.</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q99731455']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106435366', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
+          <t>Give me a list of all trumpet players that were bandleaders.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
+          <t>['http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q99731455']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
+          <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106435366', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
         </is>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['1978-04-09T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954', 'http://www.wikidata.org/entity/Q20899741', 'http://www.wikidata.org/entity/Q244975']</t>
         </is>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>What is the most frequent cause of death?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q12152']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1324130']</t>
+          <t>['1978-04-09T00:00:00Z']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Who has Tom Cruise been married to?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
+          <t>['http://www.wikidata.org/entity/Q2462124']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054']</t>
+          <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,37 +838,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>Who has Tom Cruise been married to?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['5348554000']</t>
+          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['1120000000', '5348554000']</t>
+          <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q9215']</t>
+          <t>['5348554000']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q9215']</t>
+          <t>['5348554000']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['447706209']</t>
+          <t>['1735-10-30T00:00:00Z']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['447706209']</t>
+          <t>['1735-10-30T00:00:00Z']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q39099']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q39099']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Give me all islands that belong to Japan.</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
+          <t>['1616-05-03T00:00:00Z']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
+          <t>['1616-05-03T00:00:00Z']</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Who developed the video game World of Warcraft?</t>
+          <t>Give me all islands that belong to Japan.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q178824']</t>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q178824']</t>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,37 +998,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Give me all companies in the advertising industry.</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854', 'http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['134']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Which university did Angela Merkel attend?</t>
+          <t>Give me all companies in the advertising industry.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804']</t>
+          <t>['http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854', 'http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+          <t>['http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q106651917', 'http://www.wikidata.org/entity/Q107065198', 'http://www.wikidata.org/entity/Q107177305', 'http://www.wikidata.org/entity/Q107639163', 'http://www.wikidata.org/entity/Q109267357', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q114273373', 'http://www.wikidata.org/entity/Q118227042', 'http://www.wikidata.org/entity/Q120373442', 'http://www.wikidata.org/entity/Q121002697', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q12260521', 'http://www.wikidata.org/entity/Q122960694', 'http://www.wikidata.org/entity/Q122961074', 'http://www.wikidata.org/entity/Q12482376', 'http://www.wikidata.org/entity/Q12487413', 'http://www.wikidata.org/entity/Q12495906', 'http://www.wikidata.org/entity/Q12523713', 'http://www.wikidata.org/entity/Q1254500', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q12696352', 'http://www.wikidata.org/entity/Q127883769', 'http://www.wikidata.org/entity/Q130284743', 'http://www.wikidata.org/entity/Q130314059', 'http://www.wikidata.org/entity/Q1486164', 'http://www.wikidata.org/entity/Q16242558', 'http://www.wikidata.org/entity/Q16829282', 'http://www.wikidata.org/entity/Q16850366', 'http://www.wikidata.org/entity/Q16984228', 'http://www.wikidata.org/entity/Q16987981', 'http://www.wikidata.org/entity/Q16998925', 'http://www.wikidata.org/entity/Q17051079', 'http://www.wikidata.org/entity/Q17053569', 'http://www.wikidata.org/entity/Q17079823', 'http://www.wikidata.org/entity/Q17080668', 'http://www.wikidata.org/entity/Q17087522', 'http://www.wikidata.org/entity/Q17089070', 'http://www.wikidata.org/entity/Q17089237', 'http://www.wikidata.org/entity/Q17091590', 'http://www.wikidata.org/entity/Q17092370', 'http://www.wikidata.org/entity/Q17092786', 'http://www.wikidata.org/entity/Q17143864', 'http://www.wikidata.org/entity/Q18149357', 'http://www.wikidata.org/entity/Q19903807', 'http://www.wikidata.org/entity/Q202643', 'http://www.wikidata.org/entity/Q20967159', 'http://www.wikidata.org/entity/Q2248698', 'http://www.wikidata.org/entity/Q23925146', 'http://www.wikidata.org/entity/Q25346573', 'http://www.wikidata.org/entity/Q2664673', 'http://www.wikidata.org/entity/Q28134086', 'http://www.wikidata.org/entity/Q2896762', 'http://www.wikidata.org/entity/Q30636598', 'http://www.wikidata.org/entity/Q3086767', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q3216588', 'http://www.wikidata.org/entity/Q3408532', 'http://www.wikidata.org/entity/Q3700127', 'http://www.wikidata.org/entity/Q4053029', 'http://www.wikidata.org/entity/Q4120796', 'http://www.wikidata.org/entity/Q4150680', 'http://www.wikidata.org/entity/Q4549609', 'http://www.wikidata.org/entity/Q4654536', 'http://www.wikidata.org/entity/Q4678090', 'http://www.wikidata.org/entity/Q4686752', 'http://www.wikidata.org/entity/Q4739337', 'http://www.wikidata.org/entity/Q4836884', 'http://www.wikidata.org/entity/Q4854919', 'http://www.wikidata.org/entity/Q4860933', 'http://www.wikidata.org/entity/Q4861079', 'http://www.wikidata.org/entity/Q4865350', 'http://www.wikidata.org/entity/Q4967361', 'http://www.wikidata.org/entity/Q4973691', 'http://www.wikidata.org/entity/Q5000401', 'http://www.wikidata.org/entity/Q5002552', 'http://www.wikidata.org/entity/Q5028121', 'http://www.wikidata.org/entity/Q5098012', 'http://www.wikidata.org/entity/Q5169974', 'http://www.wikidata.org/entity/Q5186047', 'http://www.wikidata.org/entity/Q5204496', 'http://www.wikidata.org/entity/Q5215397', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5295667', 'http://www.wikidata.org/entity/Q5297195', 'http://www.wikidata.org/entity/Q5308179', 'http://www.wikidata.org/entity/Q5311479', 'http://www.wikidata.org/entity/Q5312125', 'http://www.wikidata.org/entity/Q539056', 'http://www.wikidata.org/entity/Q5411631', 'http://www.wikidata.org/entity/Q5514544', 'http://www.wikidata.org/entity/Q5583188', 'http://www.wikidata.org/entity/Q5608776', 'http://www.wikidata.org/entity/Q5611054', 'http://www.wikidata.org/entity/Q6061326', 'http://www.wikidata.org/entity/Q6268712', 'http://www.wikidata.org/entity/Q6457698', 'http://www.wikidata.org/entity/Q6496177', 'http://www.wikidata.org/entity/Q6498172', 'http://www.wikidata.org/entity/Q6506578', 'http://www.wikidata.org/entity/Q65091129', 'http://www.wikidata.org/entity/Q6715128', 'http://www.wikidata.org/entity/Q6715331', 'http://www.wikidata.org/entity/Q6776895', 'http://www.wikidata.org/entity/Q6784797', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q6889131', 'http://www.wikidata.org/entity/Q6927522', 'http://www.wikidata.org/entity/Q6934173', 'http://www.wikidata.org/entity/Q6984514', 'http://www.wikidata.org/entity/Q7274343', 'http://www.wikidata.org/entity/Q7299622', 'http://www.wikidata.org/entity/Q7306853', 'http://www.wikidata.org/entity/Q7356755', 'http://www.wikidata.org/entity/Q7429996', 'http://www.wikidata.org/entity/Q7446996', 'http://www.wikidata.org/entity/Q7530120', 'http://www.wikidata.org/entity/Q7606751', 'http://www.wikidata.org/entity/Q7619970', 'http://www.wikidata.org/entity/Q7636381', 'http://www.wikidata.org/entity/Q7669065', 'http://www.wikidata.org/entity/Q7670762', 'http://www.wikidata.org/entity/Q7684697', 'http://www.wikidata.org/entity/Q7715595', 'http://www.wikidata.org/entity/Q7744810', 'http://www.wikidata.org/entity/Q7760656', 'http://www.wikidata.org/entity/Q7809733', 'http://www.wikidata.org/entity/Q7818701', 'http://www.wikidata.org/entity/Q7831626', 'http://www.wikidata.org/entity/Q7909276', 'http://www.wikidata.org/entity/Q85846828', 'http://www.wikidata.org/entity/Q96100339', 'http://www.wikidata.org/entity/Q96418483', 'http://www.wikidata.org/entity/Q99333588']</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Give me all movies with Tom Cruise.</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107646713', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q1356213', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q20755860', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q61876374', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q77949688', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
+          <t>['http://www.wikidata.org/entity/Q154804']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,37 +1058,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Where was JFK assassinated?</t>
+          <t>Give me all movies with Tom Cruise.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107646713', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q1356213', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q20755860', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q61876374', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q77949688', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+          <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
         </is>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>What was the last movie with Alec Guinness?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6074']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6074']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,97 +1118,97 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>What is the second highest mountain on Earth?</t>
+          <t>What was the last movie with Alec Guinness?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q5159490']</t>
+          <t>['http://www.wikidata.org/entity/Q6074']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q945543']</t>
+          <t>['http://www.wikidata.org/entity/Q6074']</t>
         </is>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>What is the second highest mountain on Earth?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['9606916']</t>
+          <t>['http://www.wikidata.org/entity/Q5159490']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['9606916']</t>
+          <t>['http://www.wikidata.org/entity/Q945543']</t>
         </is>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Which people were born in Heraklion?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
+          <t>['9606916']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
+          <t>['9606916']</t>
         </is>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
         </is>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>how much is the elevation of Düsseldorf Airport ?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['147']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['147']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>In which country is Mecca located?</t>
+          <t>how much is the elevation of Düsseldorf Airport ?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['147']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['147']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['180']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['180']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -1258,57 +1258,57 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
+          <t>['180']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
+          <t>['180']</t>
         </is>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>Which holidays are celebrated around the world?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
+          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
+          <t>['http://www.wikidata.org/entity/Q100329955', 'http://www.wikidata.org/entity/Q100597341', 'http://www.wikidata.org/entity/Q100860934', 'http://www.wikidata.org/entity/Q101026979', 'http://www.wikidata.org/entity/Q101545880', 'http://www.wikidata.org/entity/Q101627559', 'http://www.wikidata.org/entity/Q1016833', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q102276948', 'http://www.wikidata.org/entity/Q102398478', 'http://www.wikidata.org/entity/Q10244', 'http://www.wikidata.org/entity/Q10253', 'http://www.wikidata.org/entity/Q1025481', 'http://www.wikidata.org/entity/Q10259922', 'http://www.wikidata.org/entity/Q10265947', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10329424', 'http://www.wikidata.org/entity/Q103821550', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q103956800', 'http://www.wikidata.org/entity/Q10398273', 'http://www.wikidata.org/entity/Q104051143', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q10416096', 'http://www.wikidata.org/entity/Q10418897', 'http://www.wikidata.org/entity/Q104224166', 'http://www.wikidata.org/entity/Q1043596', 'http://www.wikidata.org/entity/Q104601590', 'http://www.wikidata.org/entity/Q104625773', 'http://www.wikidata.org/entity/Q104758920', 'http://www.wikidata.org/entity/Q10481350', 'http://www.wikidata.org/entity/Q104920297', 'http://www.wikidata.org/entity/Q10494624', 'http://www.wikidata.org/entity/Q10495964', 'http://www.wikidata.org/entity/Q10496086', 'http://www.wikidata.org/entity/Q10501512', 'http://www.wikidata.org/entity/Q1050292', 'http://www.wikidata.org/entity/Q105043914', 'http://www.wikidata.org/entity/Q105121443', 'http://www.wikidata.org/entity/Q105360445', 'http://www.wikidata.org/entity/Q105393711', 'http://www.wikidata.org/entity/Q105394069', 'http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q1054558', 'http://www.wikidata.org/entity/Q105663779', 'http://www.wikidata.org/entity/Q10586365', 'http://www.wikidata.org/entity/Q10601007', 'http://www.wikidata.org/entity/Q10601355', 'http://www.wikidata.org/entity/Q106019359', 'http://www.wikidata.org/entity/Q106043577', 'http://www.wikidata.org/entity/Q106078232', 'http://www.wikidata.org/entity/Q106200291', 'http://www.wikidata.org/entity/Q106240773', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q10631904', 'http://www.wikidata.org/entity/Q106331005', 'http://www.wikidata.org/entity/Q106349026', 'http://www.wikidata.org/entity/Q106369745', 'http://www.wikidata.org/entity/Q106436015', 'http://www.wikidata.org/entity/Q106505905', 'http://www.wikidata.org/entity/Q10666884', 'http://www.wikidata.org/entity/Q106675733', 'http://www.wikidata.org/entity/Q106689897', 'http://www.wikidata.org/entity/Q10669318', 'http://www.wikidata.org/entity/Q10669370', 'http://www.wikidata.org/entity/Q10669371', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q10689145', 'http://www.wikidata.org/entity/Q10689146', 'http://www.wikidata.org/entity/Q106899527', 'http://www.wikidata.org/entity/Q10698576', 'http://www.wikidata.org/entity/Q10698931', 'http://www.wikidata.org/entity/Q10698932', 'http://www.wikidata.org/entity/Q10698935', 'http://www.wikidata.org/entity/Q10698936', 'http://www.wikidata.org/entity/Q10698937', 'http://www.wikidata.org/entity/Q10699347', 'http://www.wikidata.org/entity/Q107015910', 'http://www.wikidata.org/entity/Q10701677', 'http://www.wikidata.org/entity/Q10701968', 'http://www.wikidata.org/entity/Q1070318', 'http://www.wikidata.org/entity/Q10714715', 'http://www.wikidata.org/entity/Q10726998', 'http://www.wikidata.org/entity/Q107309593', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q107739995', 'http://www.wikidata.org/entity/Q108010714', 'http://www.wikidata.org/entity/Q108101493', 'http://www.wikidata.org/entity/Q108131371', 'http://www.wikidata.org/entity/Q108219988', 'http://www.wikidata.org/entity/Q108315106', 'http://www.wikidata.org/entity/Q108392466', 'http://www.wikidata.org/entity/Q108424805', 'http://www.wikidata.org/entity/Q10854401', 'http://www.wikidata.org/entity/Q10855559', 'http://www.wikidata.org/entity/Q108660772', 'http://www.wikidata.org/entity/Q10868404', 'http://www.wikidata.org/entity/Q108730127', 'http://www.wikidata.org/entity/Q108749396', 'http://www.wikidata.org/entity/Q108749484', 'http://www.wikidata.org/entity/Q108814176', 'http://www.wikidata.org/entity/Q108936669', 'http://www.wikidata.org/entity/Q10909572', 'http://www.wikidata.org/entity/Q109121006', 'http://www.wikidata.org/entity/Q1091428', 'http://www.wikidata.org/entity/Q10921477', 'http://www.wikidata.org/entity/Q109285268', 'http://www.wikidata.org/entity/Q109329448', 'http://www.wikidata.org/entity/Q109329455', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109381883', 'http://www.wikidata.org/entity/Q109440429', 'http://www.wikidata.org/entity/Q109455204', 'http://www.wikidata.org/entity/Q10955171', 'http://www.wikidata.org/entity/Q109558468', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q10964022', 'http://www.wikidata.org/entity/Q109827527', 'http://www.wikidata.org/entity/Q109838056', 'http://www.wikidata.org/entity/Q109908577', 'http://www.wikidata.org/entity/Q11002663', 'http://www.wikidata.org/entity/Q110091424', 'http://www.wikidata.org/entity/Q110128398', 'http://www.wikidata.org/entity/Q110206440', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q110639888', 'http://www.wikidata.org/entity/Q110962934', 'http://www.wikidata.org/entity/Q111149458', 'http://www.wikidata.org/entity/Q111202983', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111574867', 'http://www.wikidata.org/entity/Q111605537', 'http://www.wikidata.org/entity/Q111649462', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q111655654', 'http://www.wikidata.org/entity/Q111711222', 'http://www.wikidata.org/entity/Q111732603', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111846538', 'http://www.wikidata.org/entity/Q111914764', 'http://www.wikidata.org/entity/Q112055', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112075710', 'http://www.wikidata.org/entity/Q11219195', 'http://www.wikidata.org/entity/Q112292803', 'http://www.wikidata.org/entity/Q11237670', 'http://www.wikidata.org/entity/Q11244589', 'http://www.wikidata.org/entity/Q112613424', 'http://www.wikidata.org/entity/Q11269', 'http://www.wikidata.org/entity/Q112748137', 'http://www.wikidata.org/entity/Q11277431', 'http://www.wikidata.org/entity/Q112971391', 'http://www.wikidata.org/entity/Q112971396', 'http://www.wikidata.org/entity/Q112971410', 'http://www.wikidata.org/entity/Q112971413', 'http://www.wikidata.org/entity/Q113040064', 'http://www.wikidata.org/entity/Q113114857', 'http://www.wikidata.org/entity/Q113232600', 'http://www.wikidata.org/entity/Q113383597', 'http://www.wikidata.org/entity/Q113470219', 'http://www.wikidata.org/entity/Q113470532', 'http://www.wikidata.org/entity/Q113485231', 'http://www.wikidata.org/entity/Q113499420', 'http://www.wikidata.org/entity/Q113499458', 'http://www.wikidata.org/entity/Q1135034', 'http://www.wikidata.org/entity/Q11354348', 'http://www.wikidata.org/entity/Q113549137', 'http://www.wikidata.org/entity/Q113576165', 'http://www.wikidata.org/entity/Q113581609', 'http://www.wikidata.org/entity/Q113627236', 'http://www.wikidata.org/entity/Q113631347', 'http://www.wikidata.org/entity/Q113631375', 'http://www.wikidata.org/entity/Q113631508', 'http://www.wikidata.org/entity/Q113631563', 'http://www.wikidata.org/entity/Q113631569', 'http://www.wikidata.org/entity/Q113674106', 'http://www.wikidata.org/entity/Q11371391', 'http://www.wikidata.org/entity/Q113714633', 'http://www.wikidata.org/entity/Q11387117', 'http://www.wikidata.org/entity/Q113903854', 'http://www.wikidata.org/entity/Q11391277', 'http://www.wikidata.org/entity/Q1139591', 'http://www.wikidata.org/entity/Q11409712', 'http://www.wikidata.org/entity/Q114315605', 'http://www.wikidata.org/entity/Q114658295', 'http://www.wikidata.org/entity/Q1147008', 'http://www.wikidata.org/entity/Q114779611', 'http://www.wikidata.org/entity/Q114780741', 'http://www.wikidata.org/entity/Q114781351', 'http://www.wikidata.org/entity/Q114840373', 'http://www.wikidata.org/entity/Q114863314', 'http://www.wikidata.org/entity/Q115152362', 'http://www.wikidata.org/entity/Q115209188', 'http://www.wikidata.org/entity/Q115214299', 'http://www.wikidata.org/entity/Q115259173', 'http://www.wikidata.org/entity/Q115294651', 'http://www.wikidata.org/entity/Q115327380', 'http://www.wikidata.org/entity/Q1153848', 'http://www.wikidata.org/entity/Q11545488', 'http://www.wikidata.org/entity/Q115516436', 'http://www.wikidata.org/entity/Q115526578', 'http://www.wikidata.org/entity/Q115624997', 'http://www.wikidata.org/entity/Q115628690', 'http://www.wikidata.org/entity/Q11567159', 'http://www.wikidata.org/entity/Q11590237', 'http://www.wikidata.org/entity/Q115937074', 'http://www.wikidata.org/entity/Q11606287', 'http://www.wikidata.org/entity/Q116113833', 'http://www.wikidata.org/entity/Q116349234', 'http://www.wikidata.org/entity/Q116767714', 'http://www.wikidata.org/entity/Q116790237', 'http://www.wikidata.org/entity/Q116846825', 'http://www.wikidata.org/entity/Q116858640', 'http://www.wikidata.org/entity/Q116938985', 'http://www.wikidata.org/entity/Q11695705', 'http://www.wikidata.org/entity/Q11695707', 'http://www.wikidata.org/entity/Q11695708', 'http://www.wikidata.org/entity/Q11695711', 'http://www.wikidata.org/entity/Q11695713', 'http://www.wikidata.org/entity/Q11695714', 'http://www.wikidata.org/entity/Q11695716', 'http://www.wikidata.org/entity/Q11695717', 'http://www.wikidata.org/entity/Q11695718', 'http://www.wikidata.org/entity/Q11695721', 'http://www.wikidata.org/entity/Q11695722', 'http://www.wikidata.org/entity/Q11695723', 'http://www.wikidata.org/entity/Q116973585', 'http://www.wikidata.org/entity/Q116980492', 'http://www.wikidata.org/entity/Q117035968', 'http://www.wikidata.org/entity/Q11703716', 'http://www.wikidata.org/entity/Q117040282', 'http://www.wikidata.org/entity/Q11706236', 'http://www.wikidata.org/entity/Q1170632', 'http://www.wikidata.org/entity/Q117361394', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117455751', 'http://www.wikidata.org/entity/Q117587270', 'http://www.wikidata.org/entity/Q117711867', 'http://www.wikidata.org/entity/Q11783773', 'http://www.wikidata.org/entity/Q11783808', 'http://www.wikidata.org/entity/Q117844480', 'http://www.wikidata.org/entity/Q11789695', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q11789707', 'http://www.wikidata.org/entity/Q11802972', 'http://www.wikidata.org/entity/Q118224784', 'http://www.wikidata.org/entity/Q118288532', 'http://www.wikidata.org/entity/Q118314773', 'http://www.wikidata.org/entity/Q118330188', 'http://www.wikidata.org/entity/Q118369207', 'http://www.wikidata.org/entity/Q118744251', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118947258', 'http://www.wikidata.org/entity/Q119105010', 'http://www.wikidata.org/entity/Q11919090', 'http://www.wikidata.org/entity/Q119241124', 'http://www.wikidata.org/entity/Q119243817', 'http://www.wikidata.org/entity/Q119285617', 'http://www.wikidata.org/entity/Q119348301', 'http://www.wikidata.org/entity/Q119397277', 'http://www.wikidata.org/entity/Q1194059', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q119806244', 'http://www.wikidata.org/entity/Q119853995', 'http://www.wikidata.org/entity/Q120068971', 'http://www.wikidata.org/entity/Q120146391', 'http://www.wikidata.org/entity/Q120403912', 'http://www.wikidata.org/entity/Q120486552', 'http://www.wikidata.org/entity/Q12060958', 'http://www.wikidata.org/entity/Q120823815', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q12090941', 'http://www.wikidata.org/entity/Q1209940', 'http://www.wikidata.org/entity/Q12100125', 'http://www.wikidata.org/entity/Q12100126', 'http://www.wikidata.org/entity/Q12100128', 'http://www.wikidata.org/entity/Q12100132', 'http://www.wikidata.org/entity/Q12100138', 'http://www.wikidata.org/entity/Q12100141', 'http://www.wikidata.org/entity/Q12100152', 'http://www.wikidata.org/entity/Q12100160', 'http://www.wikidata.org/entity/Q12131090', 'http://www.wikidata.org/entity/Q121322780', 'http://www.wikidata.org/entity/Q121393', 'http://www.wikidata.org/entity/Q12149731', 'http://www.wikidata.org/entity/Q12174361', 'http://www.wikidata.org/entity/Q121759535', 'http://www.wikidata.org/entity/Q121852183', 'http://www.wikidata.org/entity/Q121864546', 'http://www.wikidata.org/entity/Q121991381', 'http://www.wikidata.org/entity/Q122057715', 'http://www.wikidata.org/entity/Q122058042', 'http://www.wikidata.org/entity/Q122144115', 'http://www.wikidata.org/entity/Q122199376', 'http://www.wikidata.org/entity/Q122341064', 'http://www.wikidata.org/entity/Q122460010', 'http://www.wikidata.org/entity/Q122495885', 'http://www.wikidata.org/entity/Q1226845', 'http://www.wikidata.org/entity/Q122767100', 'http://www.wikidata.org/entity/Q12284238', 'http://www.wikidata.org/entity/Q12286265', 'http://www.wikidata.org/entity/Q12286390', 'http://www.wikidata.org/entity/Q12289674', 'http://www.wikidata.org/entity/Q12292151', 'http://www.wikidata.org/entity/Q12293119', 'http://www.wikidata.org/entity/Q12293243', 'http://www.wikidata.org/entity/Q12299913', 'http://www.wikidata.org/entity/Q123111964', 'http://www.wikidata.org/entity/Q1231872', 'http://www.wikidata.org/entity/Q123253535', 'http://www.wikidata.org/entity/Q123265528', 'http://www.wikidata.org/entity/Q123450314', 'http://www.wikidata.org/entity/Q123515600', 'http://www.wikidata.org/entity/Q12353618', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q123757853', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q12407917', 'http://www.wikidata.org/entity/Q12407923', 'http://www.wikidata.org/entity/Q1241858', 'http://www.wikidata.org/entity/Q12422844', 'http://www.wikidata.org/entity/Q124250314', 'http://www.wikidata.org/entity/Q124250951', 'http://www.wikidata.org/entity/Q124255532', 'http://www.wikidata.org/entity/Q124318023', 'http://www.wikidata.org/entity/Q124352953', 'http://www.wikidata.org/entity/Q124367000', 'http://www.wikidata.org/entity/Q12438967', 'http://www.wikidata.org/entity/Q124408550', 'http://www.wikidata.org/entity/Q12441237', 'http://www.wikidata.org/entity/Q124498473', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q124568688', 'http://www.wikidata.org/entity/Q124747000', 'http://www.wikidata.org/entity/Q124799998', 'http://www.wikidata.org/entity/Q124830290', 'http://www.wikidata.org/entity/Q124854084', 'http://www.wikidata.org/entity/Q12513670', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q1252585', 'http://www.wikidata.org/entity/Q1252596', 'http://www.wikidata.org/entity/Q125505711', 'http://www.wikidata.org/entity/Q1255099', 'http://www.wikidata.org/entity/Q125524227', 'http://www.wikidata.org/entity/Q125613295', 'http://www.wikidata.org/entity/Q125912847', 'http://www.wikidata.org/entity/Q125928736', 'http://www.wikidata.org/entity/Q12601109', 'http://www.wikidata.org/entity/Q12602481', 'http://www.wikidata.org/entity/Q126083299', 'http://www.wikidata.org/entity/Q126083373', 'http://www.wikidata.org/entity/Q126113071', 'http://www.wikidata.org/entity/Q12614307', 'http://www.wikidata.org/entity/Q12614875', 'http://www.wikidata.org/entity/Q126192995', 'http://www.wikidata.org/entity/Q126260200', 'http://www.wikidata.org/entity/Q12650252', 'http://www.wikidata.org/entity/Q12663498', 'http://www.wikidata.org/entity/Q126708915', 'http://www.wikidata.org/entity/Q126902823', 'http://www.wikidata.org/entity/Q126903060', 'http://www.wikidata.org/entity/Q126910647', 'http://www.wikidata.org/entity/Q126948133', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q1270782', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12719109', 'http://www.wikidata.org/entity/Q127393146', 'http://www.wikidata.org/entity/Q127502506', 'http://www.wikidata.org/entity/Q12750635', 'http://www.wikidata.org/entity/Q127597840', 'http://www.wikidata.org/entity/Q127798249', 'http://www.wikidata.org/entity/Q12787253', 'http://www.wikidata.org/entity/Q12787255', 'http://www.wikidata.org/entity/Q127922454', 'http://www.wikidata.org/entity/Q12803843', 'http://www.wikidata.org/entity/Q12836659', 'http://www.wikidata.org/entity/Q12859165', 'http://www.wikidata.org/entity/Q12864158', 'http://www.wikidata.org/entity/Q1290276', 'http://www.wikidata.org/entity/Q12927731', 'http://www.wikidata.org/entity/Q129726', 'http://www.wikidata.org/entity/Q12986877', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q12989464', 'http://www.wikidata.org/entity/Q13020973', 'http://www.wikidata.org/entity/Q130215597', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237543', 'http://www.wikidata.org/entity/Q130237544', 'http://www.wikidata.org/entity/Q130237545', 'http://www.wikidata.org/entity/Q130237546', 'http://www.wikidata.org/entity/Q130237547', 'http://www.wikidata.org/entity/Q130237548', 'http://www.wikidata.org/entity/Q130237549', 'http://www.wikidata.org/entity/Q130237550', 'http://www.wikidata.org/entity/Q130237552', 'http://www.wikidata.org/entity/Q130237553', 'http://www.wikidata.org/entity/Q130237554', 'http://www.wikidata.org/entity/Q130237555', 'http://www.wikidata.org/entity/Q130237556', 'http://www.wikidata.org/entity/Q130237557', 'http://www.wikidata.org/entity/Q130237558', 'http://www.wikidata.org/entity/Q130237559', 'http://www.wikidata.org/entity/Q130237560', 'http://www.wikidata.org/entity/Q130237561', 'http://www.wikidata.org/entity/Q130237562', 'http://www.wikidata.org/entity/Q130237563', 'http://www.wikidata.org/entity/Q130237564', 'http://www.wikidata.org/entity/Q130237565', 'http://www.wikidata.org/entity/Q130237566', 'http://www.wikidata.org/entity/Q130237567', 'http://www.wikidata.org/entity/Q130237570', 'http://www.wikidata.org/entity/Q130237571', 'http://www.wikidata.org/entity/Q130237572', 'http://www.wikidata.org/entity/Q130237573', 'http://www.wikidata.org/entity/Q130237574', 'http://www.wikidata.org/entity/Q130237575', 'http://www.wikidata.org/entity/Q130237576', 'http://www.wikidata.org/entity/Q130237577', 'http://www.wikidata.org/entity/Q130237578', 'http://www.wikidata.org/entity/Q130237579', 'http://www.wikidata.org/entity/Q130237581', 'http://www.wikidata.org/entity/Q130237582', 'http://www.wikidata.org/entity/Q130237584', 'http://www.wikidata.org/entity/Q130237585', 'http://www.wikidata.org/entity/Q130237587', 'http://www.wikidata.org/entity/Q130237588', 'http://www.wikidata.org/entity/Q130237589', 'http://www.wikidata.org/entity/Q130237591', 'http://www.wikidata.org/entity/Q130237592', 'http://www.wikidata.org/entity/Q130237593', 'http://www.wikidata.org/entity/Q130237594', 'http://www.wikidata.org/entity/Q130237597', 'http://www.wikidata.org/entity/Q130237598', 'http://www.wikidata.org/entity/Q130237599', 'http://www.wikidata.org/entity/Q130237601', 'http://www.wikidata.org/entity/Q130237602', 'http://www.wikidata.org/entity/Q130237603', 'http://www.wikidata.org/entity/Q130237604', 'http://www.wikidata.org/entity/Q130237605', 'http://www.wikidata.org/entity/Q130237607', 'http://www.wikidata.org/entity/Q130237608', 'http://www.wikidata.org/entity/Q130237609', 'http://www.wikidata.org/entity/Q130237611', 'http://www.wikidata.org/entity/Q130237612', 'http://www.wikidata.org/entity/Q130237613', 'http://www.wikidata.org/entity/Q130237615', 'http://www.wikidata.org/entity/Q130237616', 'http://www.wikidata.org/entity/Q130237617', 'http://www.wikidata.org/entity/Q130237618', 'http://www.wikidata.org/entity/Q130237619', 'http://www.wikidata.org/entity/Q130237620', 'http://www.wikidata.org/entity/Q130237621', 'http://www.wikidata.org/entity/Q130237623', 'http://www.wikidata.org/entity/Q130237624', 'http://www.wikidata.org/entity/Q130237625', 'http://www.wikidata.org/entity/Q130237626', 'http://www.wikidata.org/entity/Q130237627', 'http://www.wikidata.org/entity/Q130237628', 'http://www.wikidata.org/entity/Q130237629', 'http://www.wikidata.org/entity/Q130237630', 'http://www.wikidata.org</t>
         </is>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q138578']</t>
+          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q138578']</t>
+          <t>['http://www.wikidata.org/entity/Q11366', 'http://www.wikidata.org/entity/Q11399', 'http://www.wikidata.org/entity/Q1428637', 'http://www.wikidata.org/entity/Q1641839', 'http://www.wikidata.org/entity/Q181861', 'http://www.wikidata.org/entity/Q186472', 'http://www.wikidata.org/entity/Q206159', 'http://www.wikidata.org/entity/Q217467', 'http://www.wikidata.org/entity/Q27190', 'http://www.wikidata.org/entity/Q650316', 'http://www.wikidata.org/entity/Q76092', 'http://www.wikidata.org/entity/Q885561']</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['http://www.wikidata.org/entity/Q138578']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q2590944']</t>
+          <t>['http://www.wikidata.org/entity/Q138578']</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -1338,57 +1338,57 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Give me all Swedish holidays.</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>What is the net income of Apple?</t>
+          <t>Give me all Swedish holidays.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
         </is>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>What is the net income of Apple?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="D48" t="b">
@@ -1398,21 +1398,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q3630', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
         </is>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1578,37 +1578,37 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>Which actors were born in Germany?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q1000015', 'http://www.wikidata.org/entity/Q1000204', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000416', 'http://www.wikidata.org/entity/Q1000748', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001135', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100258', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100303063', 'http://www.wikidata.org/entity/Q100312', 'http://www.wikidata.org/entity/Q100332248', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100351', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100446', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q100486', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100570', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100604', 'http://www.wikidata.org/entity/Q100641', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100661', 'http://www.wikidata.org/entity/Q100671', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100700', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100718965', 'http://www.wikidata.org/entity/Q100721', 'http://www.wikidata.org/entity/Q100742647', 'http://www.wikidata.org/entity/Q100766', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100792', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100882525', 'http://www.wikidata.org/entity/Q100882715', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q10093755', 'http://www.wikidata.org/entity/Q100978', 'http://www.wikidata.org/entity/Q101002739', 'http://www.wikidata.org/entity/Q101003030', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q1010197', 'http://www.wikidata.org/entity/Q101047', 'http://www.wikidata.org/entity/Q101048351', 'http://www.wikidata.org/entity/Q101058', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101068367', 'http://www.wikidata.org/entity/Q101110', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101229983', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101253', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101278', 'http://www.wikidata.org/entity/Q101303', 'http://www.wikidata.org/entity/Q101371', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101396', 'http://www.wikidata.org/entity/Q101413424', 'http://www.wikidata.org/entity/Q101421778', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101480', 'http://www.wikidata.org/entity/Q1016421', 'http://www.wikidata.org/entity/Q101686', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101778', 'http://www.wikidata.org/entity/Q101779', 'http://www.wikidata.org/entity/Q101786', 'http://www.wikidata.org/entity/Q101787', 'http://www.wikidata.org/entity/Q101792134', 'http://www.wikidata.org/entity/Q101803', 'http://www.wikidata.org/entity/Q101807', 'http://www.wikidata.org/entity/Q1018220', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101863013', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101990', 'http://www.wikidata.org/entity/Q102030', 'http://www.wikidata.org/entity/Q102051844', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102155', 'http://www.wikidata.org/entity/Q102156', 'http://www.wikidata.org/entity/Q102207', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102427970', 'http://www.wikidata.org/entity/Q102428030', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102451', 'http://www.wikidata.org/entity/Q102465', 'http://www.wikidata.org/entity/Q102480', 'http://www.wikidata.org/entity/Q102534', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026523', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102675', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102709', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q10271977', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q102822295', 'http://www.wikidata.org/entity/Q1029161', 'http://www.wikidata.org/entity/Q1029169', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102945', 'http://www.wikidata.org/entity/Q1029561', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q102994', 'http://www.wikidata.org/entity/Q1030014', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q103132', 'http://www.wikidata.org/entity/Q103174', 'http://www.wikidata.org/entity/Q10325330', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103281', 'http://www.wikidata.org/entity/Q103315', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103385', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103418', 'http://www.wikidata.org/entity/Q103425', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q10348949', 'http://www.wikidata.org/entity/Q103579', 'http://www.wikidata.org/entity/Q103605', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036206', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q1036506', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103710125', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q1037365', 'http://www.wikidata.org/entity/Q103751', 'http://www.wikidata.org/entity/Q103754', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q1038623', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q10388307', 'http://www.wikidata.org/entity/Q103896441', 'http://www.wikidata.org/entity/Q103899154', 'http://www.wikidata.org/entity/Q103909', 'http://www.wikidata.org/entity/Q103918', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q1039594', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040913', 'http://www.wikidata.org/entity/Q1040935', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104101', 'http://www.wikidata.org/entity/Q1041095', 'http://www.wikidata.org/entity/Q1041155', 'http://www.wikidata.org/entity/Q104118', 'http://www.wikidata.org/entity/Q104128806', 'http://www.wikidata.org/entity/Q1041374', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041542', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q1041562', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104172730', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104197360', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104221', 'http://www.wikidata.org/entity/Q1042218', 'http://www.wikidata.org/entity/Q104248688', 'http://www.wikidata.org/entity/Q1042938', 'http://www.wikidata.org/entity/Q104331', 'http://www.wikidata.org/entity/Q104336', 'http://www.wikidata.org/entity/Q104339', 'http://www.wikidata.org/entity/Q104346', 'http://www.wikidata.org/entity/Q1043539', 'http://www.wikidata.org/entity/Q1043541', 'http://www.wikidata.org/entity/Q1043592', 'http://www.wikidata.org/entity/Q104364', 'http://www.wikidata.org/entity/Q1043663', 'http://www.wikidata.org/entity/Q1043689', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104377', 'http://www.wikidata.org/entity/Q1044134', 'http://www.wikidata.org/entity/Q104421528', 'http://www.wikidata.org/entity/Q1044245', 'http://www.wikidata.org/entity/Q1044249', 'http://www.wikidata.org/entity/Q1044261', 'http://www.wikidata.org/entity/Q1044325', 'http://www.wikidata.org/entity/Q1044332', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044362', 'http://www.wikidata.org/entity/Q104447', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044518', 'http://www.wikidata.org/entity/Q1044556', 'http://www.wikidata.org/entity/Q1044649', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045604', 'http://www.wikidata.org/entity/Q104563', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q104573', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104594832', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104667849', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104698401', 'http://www.wikidata.org/entity/Q104699210', 'http://www.wikidata.org/entity/Q104699220', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104759617', 'http://www.wikidata.org/entity/Q104764369', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104771163', 'http://www.wikidata.org/entity/Q1047807', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104828502', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104849', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104879111', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105043', 'http://www.wikidata.org/entity/Q105049', 'http://www.wikidata.org/entity/Q105050', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105062031', 'http://www.wikidata.org/entity/Q105062089', 'http://www.wikidata.org/entity/Q105067234', 'http://www.wikidata.org/entity/Q105079039', 'http://www.wikidata.org/entity/Q1050799', 'http://www.wikidata.org/entity/Q105085341', 'http://www.wikidata.org/entity/Q1050930', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q105107229', 'http://www.wikidata.org/entity/Q105107318', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051124', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q1051177', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105144', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105152', 'http://www.wikidata.org/entity/Q105161', 'http://www.wikidata.org/entity/Q105182', 'http://www.wikidata.org/entity/Q105185', 'http://www.wikidata.org/entity/Q105192', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q105195', 'http://www.wikidata.org/entity/Q105222320', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q1052392', 'http://www.wikidata.org/entity/Q105277', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105288', 'http://www.wikidata.org/entity/Q1052907', 'http://www.wikidata.org/entity/Q105321093', 'http://www.wikidata.org/entity/Q105359059', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105373812', 'http://www.wikidata.org/entity/Q105475003', 'http://www.wikidata.org/entity/Q105476483', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105487643', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q1054912', 'http://www.wikidata.org/entity/Q105493', 'http://www.wikidata.org/entity/Q105575969', 'http://www.wikidata.org/entity/Q105590191', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613608', 'http://www.wikidata.org/entity/Q105617', 'http://www.wikidata.org/entity/Q105630525', 'http://www.wikidata.org/entity/Q105635934', 'http://www.wikidata.org/entity/Q105654184', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105688032', 'http://www.wikidata.org/entity/Q105689', 'http://www.wikidata.org/entity/Q105696528', 'http://www.wikidata.org/entity/Q105700269', 'http://www.wikidata.org/entity/Q105742', 'http://www.wikidata.org/entity/Q105745364', 'http://www.wikidata.org/entity/Q105746355', 'http://www.wikidata.org/entity/Q105746546', 'http://www.wikidata.org/entity/Q105747', 'http://www.wikidata.org/entity/Q105750', 'http://www.wikidata.org/entity/Q105753193', 'http://www.wikidata.org/entity/Q105753333', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105755920', 'http://www.wikidata.org/entity/Q105759', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105796', 'http://www.wikidata.org/entity/Q105872326', 'http://www.wikidata.org/entity/Q105889', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105920', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105982', 'http://www.wikidata.org/entity/Q105989099', 'http://www.wikidata.org/entity/Q106000862', 'http://www.wikidata.org/entity/Q106028', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106065', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106160', 'http://www.wikidata.org/entity/Q106222', 'http://www.wikidata.org/entity/Q1062401', 'http://www.wikidata.org/entity/Q1062418', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106288', 'http://www.wikidata.org/entity/Q106294478', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106386', 'http://www.wikidata.org/entity/Q106391', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106405480', 'http://www.wikidata.org/entity/Q106405483', 'http://www.wikidata.org/entity/Q106415724', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106435697', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106463', 'http://www.wikidata.org/entity/Q106464', 'http://www.wikidata.org/entity/Q1064727', 'http://www.wikidata.org/entity/Q106478', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106485', 'http://www.wikidata.org/entity/Q106491', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106522523', 'http://www.wikidata.org/entity/Q106538782', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106561', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q1065885', 'http://www.wikidata.org/entity/Q106596508', 'http://www.wikidata.org/entity/Q1066480', 'http://www.wikidata.org/entity/Q106649', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106668', 'http://www.wikidata.org/entity/Q106673', 'http://www.wikidata.org/entity/Q106702786', 'http://www.wikidata.org/entity/Q1067106', 'http://www.wikidata.org/entity/Q1067118', 'http://www.wikidata.org/entity/Q106714373', 'http://www.wikidata.org/entity/Q1067309', 'http://www.wikidata.org/entity/Q1067322', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q1067338', 'http://www.wikidata.org/entity/Q106741', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q1067525', 'http://www.wikidata.org/entity/Q106779', 'http://www.wikidata.org/entity/Q106797', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106822', 'http://www.wikidata.org/entity/Q106824488', 'http://www.wikidata.org/entity/Q106841', 'http://www.wikidata.org/entity/Q106843', 'http://www.wikidata.org/entity/Q106860', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106895677', 'http://www.wikidata.org/entity/Q106901150', 'http://www.wikidata.org/entity/Q106917019', 'http://www.wikidata.org/entity/Q106926', 'http://www.wikidata.org/entity/Q106932', 'http://www.wikidata.org/entity/Q106945', 'http://www.wikidata.org/entity/Q106954', 'http://www.wikidata.org/entity/Q107038297', 'http://www.wikidata.org/entity/Q107122', 'http://www.wikidata.org/entity/Q107127', 'http://www.wikidata.org/entity/Q107129', 'http://www.wikidata.org/entity/Q1071412', 'http://www.wikidata.org/entity/Q107144', 'http://www.wikidata.org/entity/Q107145', 'http://www.wikidata.org/entity/Q107147', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107220', 'http://www.wikidata.org/entity/Q107222', 'http://www.wikidata.org/entity/Q107232', 'http://www.wikidata.org/entity/Q107266', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107315', 'http://www.wikidata.org/entity/Q107315059', 'http://www.wikidata.org/entity/Q107315782', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107355', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107429856', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107447786', 'http://www.wikidata.org/entity/Q107452', 'http://www.wikidata.org/entity/Q107452174', 'http://www.wikidata.org/entity/Q107461', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107520', 'http://www.wikidata.org/entity/Q107547779', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107620127', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107756', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q1077932', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q107813', 'http://www.wikidata.org/entity/Q1078178', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q1078293', 'http://www.wikidata.org/entity/Q1078759', 'http://www.wikidata.org/entity/Q1078828', 'http://www.wikidata.org/entity/Q1078902', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q1079009', 'http://www.wikidata.org/entity/Q1079066', 'http://www.wikidata.org/entity/Q1079100', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079431', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107971', 'http://www.wikidata.org/entity/Q107986625', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q1081259', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081379', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q1081551', 'http://www.wikidata.org/entity/Q1081590', 'http://www.wikidata.org/entity/Q1081636', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q108167884', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q1081783', 'http://www.wikidata.org/entity/Q1081838', 'http://www.wikidata.org/entity/Q1081851', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q1081967', 'http://www.wikidata.org/entity/Q1081968', 'http://www.wikidata.org/entity/Q1081980', 'http://www.wikidata.org/entity/Q1082013', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082022', 'http://www.wikidata.org/entity/Q1082059', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108237', 'http://www.wikidata.org/entity/Q108253143', 'http://www.wikidata.org/entity/Q1082540', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082630', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082687', 'http://www.wikidata.org/entity/Q1082693', 'http://www.wikidata.org/entity/Q1082708', 'http://www.wikidata.org/entity/Q1082740', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q1082818', 'http://www.wikidata.org/entity/Q1082872', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108299', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083144', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108318', 'http://www.wikidata.org/entity/Q1083254', 'http://www.wikidata.org/entity/Q1083281', 'http://www.wikidata.org/entity/Q108329', 'http://www.wikidata.org/entity/Q1083490', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q108360', 'http://www.wikidata.org/entity/Q1083601', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q108370597', 'http://www.wikidata.org/entity/Q1083738', 'http://www.wikidata.org/entity/Q1083743', 'http://www.wikidata.org/entity/Q1083753', 'http://www.wikidata.org/entity/Q1083780', 'http://www.wikidata.org/entity/Q1083807', 'http://www.wikidata.org/entity/Q1083820', 'http://www.wikidata.org/entity/Q1083853', 'http://www.wikidata.org/entity/Q108394', 'http://www.wikidata.org/entity/Q108406215', 'http://www.wikidata.org/entity/Q108428830', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084564', 'http://www.wikidata.org/entity/Q1084770', 'http://www.wikidata.org/entity/Q108486457', 'http://www.wikidata.org/entity/Q108493', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085074', 'http://www.wikidata.org/entity/Q1085198', 'http://www.wikidata.org/entity/Q108523', 'http://www.wikidata.org/entity/Q108531', 'http://www.wikidata.org/entity/Q1085346', 'http://www.wikidata.org/entity/Q1085424', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q1085544', 'http://www.wikidata.org/entity/Q1085547', 'http://www.wikidata.org/entity/Q10858821', 'http://www.wikidata.org/entity/Q108590', 'http://www.wikidata.org/entity/Q1086079', 'http://www.wikidata.org/entity/Q1086086', 'http://www.wikidata.org/entity/Q1086128', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108619723', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q108654', 'http://www.wikidata.org/entity/Q108668917', 'http://www.wikidata.org/entity/Q1086785', 'http://www.wikidata.org/entity/Q1086797', 'http://www.wikidata.org/entity/Q108683', 'http://www.wikidata.org/entity/Q108688300', 'http://www.wikidata.org/entity/Q1086902', 'http://www.wikidata.org/entity/Q108699374', 'http://www.wikidata.org/entity/Q108755958', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108811', 'http://www.wikidata.org/entity/Q108822170', 'http://www.wikidata.org/entity/Q108826', 'http://www.wikidata.org/entity/Q108837313', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108856185', 'http://www.wikidata.org/entity/Q108858479', 'http://www.wikidata.org/entity/Q108864', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108888633', 'http://www.wikidata.org/entity/Q108895073', 'http://www.wikidata.org/entity/Q108900954', 'http://www.wikidata.org/entity/Q108906', 'http://www.wikidata.org/entity/Q108934202', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109041476', 'http://www.wikidata.org/entity/Q109043', 'http://www.wikidata.org/entity/Q109111', 'http://www.wikidata.org/entity/Q109119', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109133', 'http://www.wikidata.org/entity/Q109143', 'http://www.wikidata.org/entity/Q109174772', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091958', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q1093078', 'http://www.wikidata.org/entity/Q109328680', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109354', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109360', 'http://www.wikidata.org/entity/Q109417403', 'http://www.wikidata.org/entity/Q109430', 'http://www.wikidata.org/entity/Q109438', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094766', 'http://www.wikidata.org/entity/Q109477', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q1094819', 'http://www.wikidata.org/entity/Q1094829', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109514', 'http://www.wikidata.org/entity/Q1095148', 'http://www.wikidata.org/entity/Q1095157', 'http://www.wikidata.org/entity/Q1095167', 'http://www.wikidata.org/entity/Q1095238', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q1095622', 'http://www.wikidata.org/entity/Q109574948', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109642', 'http://www.wikidata.org/entity/Q109645', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109658', 'http://www.wikidata.org/entity/Q109658353', 'http://www.wikidata.org/entity/Q109672985', 'http://www.wikidata.org/entity/Q109673', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q1097198', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097276', 'http://www.wikidata.org/entity/Q1097307', 'http://www.wikidata.org/entity/Q1097347', 'http://www.wikidata.org/entity/Q1097349', 'http://www.wikidata.org/entity/Q109735550', 'http://www.wikidata.org/entity/Q109744813', 'http://www.wikidata.org/entity/Q109745076', 'http://www.wikidata.org/entity/Q1097458', 'http://www.wikidata.org/entity/Q1097499', 'http://www.wikidata.org/entity/Q1097570', 'http://www.wikidata.org/entity/Q1097633', 'http://www.wikidata.org/entity/Q1097768', 'http://www.wikidata.org/entity/Q1097777', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097845', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q109786', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1097963', 'http://www.wikidata.org/entity/Q109813', 'http://www.wikidata.org/entity/Q10981679', 'http://www.wikidata.org/entity/Q109819', 'http://www.wikidata.org/entity/Q109824', 'http://www.wikidata.org/entity/Q1098306', 'http://www.wikidata.org/entity/Q1098373', 'http://www.wikidata.org/entity/Q109842', 'http://www.wikidata.org/entity/Q1098447', 'http://www.wikidata.org/entity/Q1098453', 'http://www.wikidata.org/entity/Q1098483', 'http://www.wikidata.org/entity/Q109854884', 'http://www.wikidata.org/entity/Q109855', 'http://www.wikidata.org/entity/Q109855027', 'http://www.wikidata.org/entity/Q1098728', 'http://www.wikidata.org/entity/Q109876569', 'http://www.wikidata.org/entity/Q1098848', 'http://www.wikidata.org/entity/Q109953', 'http://www.wikidata.org/entity/Q1099826', 'http://www.wikidata.org/entity/Q109990', 'http://www.wikidata.org/entity/Q1100074', 'http://www.wikidata.org/entity/Q1100192', 'http://www.wikidata.org/entity/Q1100448', 'http://www.wikidata.org/entity/Q110064', 'http://www.wikidata.org/entity/Q110097975', 'http://www.wikidata.org/entity/Q110124', 'http://www.wikidata.org/entity/Q110136', 'http://www.wikidata.org/entity/Q110141', 'http://www.wikidata.org/entity/Q110163', 'http://www.wikidata.org/entity/Q110184075', 'http://www.wikidata.org/entity/Q110253393', 'http://www.wikidata.org/entity/Q110300368', 'http://www.wikidata.org/entity/Q110303', 'http://www.wikidata.org/entity/Q110314', 'http://www.wikidata.org/entity/Q110349', 'http://www.wikidata.org/entity/Q110363506', 'http://www.wikidata.org/entity/Q110364', 'http://www.wikidata.org/entity/Q110376735', 'http://www.wikidata.org/entity/Q110386841', 'http://www.wikidata.org/entity/Q1103874', 'http://www.wikidata.org/entity/Q110391', 'http://www.wikidata.org/entity/Q110402', 'http://www.wikidata.org/entity/Q110411297', 'http://www.wikidata.org/entity/Q110413723', 'http://www.wikidata.org/entity/Q110425', 'http://www.wikidata.org/entity/Q110453300', 'http://www.wikidata.org/entity/Q110454754', 'http://www.wikidata.org/entity/Q110458807', 'http://www.wikidata.org/entity/Q1105384', 'http://www.wikidata.org/entity/Q1105394', 'http://www.wikidata.org/entity/Q110568', 'http://www.wikidata.org/entity/Q110569', 'http://www.wikidata.org/entity/Q110571', 'http://www.wikidata.org/entity/Q110605', 'http://www.wikidata.org/entity/Q110618471', 'http://www.wikidata.org/entity/Q110626464', 'http://www.wikidata.org/entity/Q110647', 'http://www.wikidata.org/entity/Q110663466', 'http://www.wikidata.org/entity/Q110665062', 'http://www.wikidata.org/entity/Q110669', 'http://www.wikidata.org/entity/Q110685', 'http://www.wikidata.org/entity/Q110695', 'http://www.wikidata.org/entity/Q110746185', 'http://www.wikidata.org/entity/Q110749', 'http://www.wikidata.org/entity/Q110757', 'http://www.wikidata.org/entity/Q110762', 'http://www.wikidata.org/entity/Q110769667', 'http://www.wikidata.org/entity/Q110827221', 'http://www.wikidata.org/entity/Q110829764', 'http://www.wikidata.org/entity/Q110835', 'http://www.wikidata.org/entity/Q110850', 'http://w</t>
         </is>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q57577']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="D59" t="b">
@@ -1618,57 +1618,57 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q57577']</t>
         </is>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>What was the first Queen album?</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q193490']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q193490']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D62" t="b">
@@ -1678,17 +1678,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>What was the first Queen album?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q193490']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['http://www.wikidata.org/entity/Q193490']</t>
         </is>
       </c>
       <c r="D63" t="b">
@@ -1698,37 +1698,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Which musician wrote the most books?</t>
+          <t>What is the currency of the Czech Republic?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q113669']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q6069405']</t>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
         </is>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Give me all writers that won the Nobel Prize in literature.</t>
+          <t>Which bridges cross the Seine?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q102483', 'http://www.wikidata.org/entity/Q1153825', 'http://www.wikidata.org/entity/Q121180', 'http://www.wikidata.org/entity/Q123469', 'http://www.wikidata.org/entity/Q127349', 'http://www.wikidata.org/entity/Q129155', 'http://www.wikidata.org/entity/Q129173', 'http://www.wikidata.org/entity/Q129187', 'http://www.wikidata.org/entity/Q131318', 'http://www.wikidata.org/entity/Q131326', 'http://www.wikidata.org/entity/Q131487', 'http://www.wikidata.org/entity/Q131549', 'http://www.wikidata.org/entity/Q132589', 'http://www.wikidata.org/entity/Q132684', 'http://www.wikidata.org/entity/Q132695', 'http://www.wikidata.org/entity/Q132701', 'http://www.wikidata.org/entity/Q132723', 'http://www.wikidata.org/entity/Q133042', 'http://www.wikidata.org/entity/Q134641', 'http://www.wikidata.org/entity/Q134644', 'http://www.wikidata.org/entity/Q1403', 'http://www.wikidata.org/entity/Q159552', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165823', 'http://www.wikidata.org/entity/Q18143', 'http://www.wikidata.org/entity/Q222944', 'http://www.wikidata.org/entity/Q225554', 'http://www.wikidata.org/entity/Q226525', 'http://www.wikidata.org/entity/Q23434', 'http://www.wikidata.org/entity/Q2344210', 'http://www.wikidata.org/entity/Q234819', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q25351', 'http://www.wikidata.org/entity/Q254032', 'http://www.wikidata.org/entity/Q25973', 'http://www.wikidata.org/entity/Q272855', 'http://www.wikidata.org/entity/Q274334', 'http://www.wikidata.org/entity/Q317877', 'http://www.wikidata.org/entity/Q33760', 'http://www.wikidata.org/entity/Q34189', 'http://www.wikidata.org/entity/Q34474', 'http://www.wikidata.org/entity/Q34670', 'http://www.wikidata.org/entity/Q34743', 'http://www.wikidata.org/entity/Q37030', 'http://www.wikidata.org/entity/Q37060', 'http://www.wikidata.org/entity/Q37327', 'http://www.wikidata.org/entity/Q37767', 'http://www.wikidata.org/entity/Q38049', 'http://www.wikidata.org/entity/Q38392', 'http://www.wikidata.org/entity/Q392', 'http://www.wikidata.org/entity/Q39212', 'http://www.wikidata.org/entity/Q39803', 'http://www.wikidata.org/entity/Q40213', 'http://www.wikidata.org/entity/Q40826', 'http://www.wikidata.org/entity/Q40874', 'http://www.wikidata.org/entity/Q41042', 'http://www.wikidata.org/entity/Q41223', 'http://www.wikidata.org/entity/Q41488', 'http://www.wikidata.org/entity/Q41502', 'http://www.wikidata.org/entity/Q42037', 'http://www.wikidata.org/entity/Q42122', 'http://www.wikidata.org/entity/Q42156', 'http://www.wikidata.org/entity/Q42247', 'http://www.wikidata.org/entity/Q42398', 'http://www.wikidata.org/entity/Q42443', 'http://www.wikidata.org/entity/Q42552', 'http://www.wikidata.org/entity/Q42596', 'http://www.wikidata.org/entity/Q42747', 'http://www.wikidata.org/entity/Q43293', 'http://www.wikidata.org/entity/Q43440', 'http://www.wikidata.org/entity/Q43523', 'http://www.wikidata.org/entity/Q43736', 'http://www.wikidata.org/entity/Q44107', 'http://www.wikidata.org/entity/Q44183', 'http://www.wikidata.org/entity/Q443868', 'http://www.wikidata.org/entity/Q44519', 'http://www.wikidata.org/entity/Q44593', 'http://www.wikidata.org/entity/Q45970', 'http://www.wikidata.org/entity/Q46405', 'http://www.wikidata.org/entity/Q46602', 'http://www.wikidata.org/entity/Q46739', 'http://www.wikidata.org/entity/Q47162', 'http://www.wikidata.org/entity/Q47243', 'http://www.wikidata.org/entity/Q47484', 'http://www.wikidata.org/entity/Q47561', 'http://www.wikidata.org/entity/Q47619', 'http://www.wikidata.org/entity/Q47695', 'http://www.wikidata.org/entity/Q47755', 'http://www.wikidata.org/entity/Q49747', 'http://www.wikidata.org/entity/Q5646626', 'http://www.wikidata.org/entity/Q57074', 'http://www.wikidata.org/entity/Q5878', 'http://www.wikidata.org/entity/Q6538', 'http://www.wikidata.org/entity/Q7176', 'http://www.wikidata.org/entity/Q72334', 'http://www.wikidata.org/entity/Q7241', 'http://www.wikidata.org/entity/Q75603', 'http://www.wikidata.org/entity/Q75612', 'http://www.wikidata.org/entity/Q76487', 'http://www.wikidata.org/entity/Q765', 'http://www.wikidata.org/entity/Q7728', 'http://www.wikidata.org/entity/Q80064', 'http://www.wikidata.org/entity/Q80095', 'http://www.wikidata.org/entity/Q80321', 'http://www.wikidata.org/entity/Q80871', 'http://www.wikidata.org/entity/Q80889', 'http://www.wikidata.org/entity/Q80900', 'http://www.wikidata.org/entity/Q81685', 'http://www.wikidata.org/entity/Q82248', 'http://www.wikidata.org/entity/Q83038', 'http://www.wikidata.org/entity/Q83059', 'http://www.wikidata.org/entity/Q83184', 'http://www.wikidata.org/entity/Q862', 'http://www.wikidata.org/entity/Q8998', 'http://www.wikidata.org/entity/Q93137', 'http://www.wikidata.org/entity/Q93157', 'http://www.wikidata.org/entity/Q93356', 'http://www.wikidata.org/entity/Q9364']</t>
+          <t>['http://www.wikidata.org/entity/Q113840426', 'http://www.wikidata.org/entity/Q123580629', 'http://www.wikidata.org/entity/Q14628924', 'http://www.wikidata.org/entity/Q14628936', 'http://www.wikidata.org/entity/Q16510093', 'http://www.wikidata.org/entity/Q17636970', 'http://www.wikidata.org/entity/Q19366968', 'http://www.wikidata.org/entity/Q19370810', 'http://www.wikidata.org/entity/Q19945222', 'http://www.wikidata.org/entity/Q2073282', 'http://www.wikidata.org/entity/Q2073308', 'http://www.wikidata.org/entity/Q21079205', 'http://www.wikidata.org/entity/Q21500125', 'http://www.wikidata.org/entity/Q21500144', 'http://www.wikidata.org/entity/Q21500156', 'http://www.wikidata.org/entity/Q2236752', 'http://www.wikidata.org/entity/Q2307670', 'http://www.wikidata.org/entity/Q2426843', 'http://www.wikidata.org/entity/Q2787259', 'http://www.wikidata.org/entity/Q2799240', 'http://www.wikidata.org/entity/Q3368279', 'http://www.wikidata.org/entity/Q3368297', 'http://www.wikidata.org/entity/Q3368324', 'http://www.wikidata.org/entity/Q3368325', 'http://www.wikidata.org/entity/Q3368327', 'http://www.wikidata.org/entity/Q3389968', 'http://www.wikidata.org/entity/Q3396471', 'http://www.wikidata.org/entity/Q3396505', 'http://www.wikidata.org/entity/Q3396552', 'http://www.wikidata.org/entity/Q3396554', 'http://www.wikidata.org/entity/Q3396581', 'http://www.wikidata.org/entity/Q3396643', 'http://www.wikidata.org/entity/Q3396668', 'http://www.wikidata.org/entity/Q3396677', 'http://www.wikidata.org/entity/Q3396680', 'http://www.wikidata.org/entity/Q3396700', 'http://www.wikidata.org/entity/Q3396702', 'http://www.wikidata.org/entity/Q3396751', 'http://www.wikidata.org/entity/Q3396799', 'http://www.wikidata.org/entity/Q3396824', 'http://www.wikidata.org/entity/Q3396841', 'http://www.wikidata.org/entity/Q3396842', 'http://www.wikidata.org/entity/Q3396857', 'http://www.wikidata.org/entity/Q3396868', 'http://www.wikidata.org/entity/Q3396873', 'http://www.wikidata.org/entity/Q3396920', 'http://www.wikidata.org/entity/Q3396929', 'http://www.wikidata.org/entity/Q3396944', 'http://www.wikidata.org/entity/Q3396970', 'http://www.wikidata.org/entity/Q3397013', 'http://www.wikidata.org/entity/Q3397027', 'http://www.wikidata.org/entity/Q3397043', 'http://www.wikidata.org/entity/Q3397089', 'http://www.wikidata.org/entity/Q3397099', 'http://www.wikidata.org/entity/Q3397103', 'http://www.wikidata.org/entity/Q3397124', 'http://www.wikidata.org/entity/Q3397125', 'http://www.wikidata.org/entity/Q3397165', 'http://www.wikidata.org/entity/Q3397185', 'http://www.wikidata.org/entity/Q3397245', 'http://www.wikidata.org/entity/Q3397248', 'http://www.wikidata.org/entity/Q3397462', 'http://www.wikidata.org/entity/Q3397482', 'http://www.wikidata.org/entity/Q3397487', 'http://www.wikidata.org/entity/Q3397607', 'http://www.wikidata.org/entity/Q3397642', 'http://www.wikidata.org/entity/Q3397797', 'http://www.wikidata.org/entity/Q3401780', 'http://www.wikidata.org/entity/Q3556527', 'http://www.wikidata.org/entity/Q3556533', 'http://www.wikidata.org/entity/Q3556553', 'http://www.wikidata.org/entity/Q3556564', 'http://www.wikidata.org/entity/Q3556573', 'http://www.wikidata.org/entity/Q3556615', 'http://www.wikidata.org/entity/Q504710', 'http://www.wikidata.org/entity/Q95374345', 'http://www.wikidata.org/entity/Q95377822', 'http://www.wikidata.org/entity/Q95628130', 'http://www.wikidata.org/entity/Q95685874']</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q102483', 'http://www.wikidata.org/entity/Q1153825', 'http://www.wikidata.org/entity/Q121180', 'http://www.wikidata.org/entity/Q123469', 'http://www.wikidata.org/entity/Q127349', 'http://www.wikidata.org/entity/Q129155', 'http://www.wikidata.org/entity/Q129173', 'http://www.wikidata.org/entity/Q129187', 'http://www.wikidata.org/entity/Q131318', 'http://www.wikidata.org/entity/Q131326', 'http://www.wikidata.org/entity/Q131487', 'http://www.wikidata.org/entity/Q131549', 'http://www.wikidata.org/entity/Q132589', 'http://www.wikidata.org/entity/Q132684', 'http://www.wikidata.org/entity/Q132695', 'http://www.wikidata.org/entity/Q132701', 'http://www.wikidata.org/entity/Q132723', 'http://www.wikidata.org/entity/Q133042', 'http://www.wikidata.org/entity/Q134641', 'http://www.wikidata.org/entity/Q134644', 'http://www.wikidata.org/entity/Q1403', 'http://www.wikidata.org/entity/Q159552', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165823', 'http://www.wikidata.org/entity/Q18143', 'http://www.wikidata.org/entity/Q222944', 'http://www.wikidata.org/entity/Q225554', 'http://www.wikidata.org/entity/Q226525', 'http://www.wikidata.org/entity/Q23434', 'http://www.wikidata.org/entity/Q2344210', 'http://www.wikidata.org/entity/Q234819', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q25351', 'http://www.wikidata.org/entity/Q254032', 'http://www.wikidata.org/entity/Q25973', 'http://www.wikidata.org/entity/Q272855', 'http://www.wikidata.org/entity/Q274334', 'http://www.wikidata.org/entity/Q317877', 'http://www.wikidata.org/entity/Q33760', 'http://www.wikidata.org/entity/Q34189', 'http://www.wikidata.org/entity/Q34474', 'http://www.wikidata.org/entity/Q34670', 'http://www.wikidata.org/entity/Q34743', 'http://www.wikidata.org/entity/Q37030', 'http://www.wikidata.org/entity/Q37060', 'http://www.wikidata.org/entity/Q37327', 'http://www.wikidata.org/entity/Q37767', 'http://www.wikidata.org/entity/Q38049', 'http://www.wikidata.org/entity/Q38392', 'http://www.wikidata.org/entity/Q392', 'http://www.wikidata.org/entity/Q39212', 'http://www.wikidata.org/entity/Q39803', 'http://www.wikidata.org/entity/Q40213', 'http://www.wikidata.org/entity/Q40826', 'http://www.wikidata.org/entity/Q40874', 'http://www.wikidata.org/entity/Q41042', 'http://www.wikidata.org/entity/Q41223', 'http://www.wikidata.org/entity/Q41488', 'http://www.wikidata.org/entity/Q41502', 'http://www.wikidata.org/entity/Q42037', 'http://www.wikidata.org/entity/Q42122', 'http://www.wikidata.org/entity/Q42156', 'http://www.wikidata.org/entity/Q42247', 'http://www.wikidata.org/entity/Q42398', 'http://www.wikidata.org/entity/Q42443', 'http://www.wikidata.org/entity/Q42552', 'http://www.wikidata.org/entity/Q42596', 'http://www.wikidata.org/entity/Q42747', 'http://www.wikidata.org/entity/Q43293', 'http://www.wikidata.org/entity/Q43440', 'http://www.wikidata.org/entity/Q43523', 'http://www.wikidata.org/entity/Q43736', 'http://www.wikidata.org/entity/Q44107', 'http://www.wikidata.org/entity/Q44183', 'http://www.wikidata.org/entity/Q443868', 'http://www.wikidata.org/entity/Q44519', 'http://www.wikidata.org/entity/Q44593', 'http://www.wikidata.org/entity/Q45970', 'http://www.wikidata.org/entity/Q46405', 'http://www.wikidata.org/entity/Q46602', 'http://www.wikidata.org/entity/Q46739', 'http://www.wikidata.org/entity/Q47162', 'http://www.wikidata.org/entity/Q47243', 'http://www.wikidata.org/entity/Q47484', 'http://www.wikidata.org/entity/Q47561', 'http://www.wikidata.org/entity/Q47619', 'http://www.wikidata.org/entity/Q47695', 'http://www.wikidata.org/entity/Q47755', 'http://www.wikidata.org/entity/Q49747', 'http://www.wikidata.org/entity/Q5646626', 'http://www.wikidata.org/entity/Q57074', 'http://www.wikidata.org/entity/Q5878', 'http://www.wikidata.org/entity/Q6538', 'http://www.wikidata.org/entity/Q7176', 'http://www.wikidata.org/entity/Q72334', 'http://www.wikidata.org/entity/Q7241', 'http://www.wikidata.org/entity/Q75603', 'http://www.wikidata.org/entity/Q75612', 'http://www.wikidata.org/entity/Q76487', 'http://www.wikidata.org/entity/Q765', 'http://www.wikidata.org/entity/Q7728', 'http://www.wikidata.org/entity/Q80064', 'http://www.wikidata.org/entity/Q80095', 'http://www.wikidata.org/entity/Q80321', 'http://www.wikidata.org/entity/Q80871', 'http://www.wikidata.org/entity/Q80889', 'http://www.wikidata.org/entity/Q80900', 'http://www.wikidata.org/entity/Q81685', 'http://www.wikidata.org/entity/Q82248', 'http://www.wikidata.org/entity/Q83038', 'http://www.wikidata.org/entity/Q83059', 'http://www.wikidata.org/entity/Q83184', 'http://www.wikidata.org/entity/Q862', 'http://www.wikidata.org/entity/Q8998', 'http://www.wikidata.org/entity/Q93137', 'http://www.wikidata.org/entity/Q93157', 'http://www.wikidata.org/entity/Q93356', 'http://www.wikidata.org/entity/Q9364']</t>
+          <t>['http://www.wikidata.org/entity/Q113840426', 'http://www.wikidata.org/entity/Q123580629', 'http://www.wikidata.org/entity/Q14628924', 'http://www.wikidata.org/entity/Q14628936', 'http://www.wikidata.org/entity/Q16510093', 'http://www.wikidata.org/entity/Q17636970', 'http://www.wikidata.org/entity/Q19366968', 'http://www.wikidata.org/entity/Q19370810', 'http://www.wikidata.org/entity/Q19945222', 'http://www.wikidata.org/entity/Q2073282', 'http://www.wikidata.org/entity/Q2073308', 'http://www.wikidata.org/entity/Q21079205', 'http://www.wikidata.org/entity/Q21500125', 'http://www.wikidata.org/entity/Q21500144', 'http://www.wikidata.org/entity/Q21500156', 'http://www.wikidata.org/entity/Q2236752', 'http://www.wikidata.org/entity/Q2307670', 'http://www.wikidata.org/entity/Q2426843', 'http://www.wikidata.org/entity/Q2787259', 'http://www.wikidata.org/entity/Q2799240', 'http://www.wikidata.org/entity/Q3368279', 'http://www.wikidata.org/entity/Q3368297', 'http://www.wikidata.org/entity/Q3368324', 'http://www.wikidata.org/entity/Q3368325', 'http://www.wikidata.org/entity/Q3368327', 'http://www.wikidata.org/entity/Q3389968', 'http://www.wikidata.org/entity/Q3396471', 'http://www.wikidata.org/entity/Q3396505', 'http://www.wikidata.org/entity/Q3396552', 'http://www.wikidata.org/entity/Q3396554', 'http://www.wikidata.org/entity/Q3396581', 'http://www.wikidata.org/entity/Q3396643', 'http://www.wikidata.org/entity/Q3396668', 'http://www.wikidata.org/entity/Q3396677', 'http://www.wikidata.org/entity/Q3396680', 'http://www.wikidata.org/entity/Q3396700', 'http://www.wikidata.org/entity/Q3396702', 'http://www.wikidata.org/entity/Q3396751', 'http://www.wikidata.org/entity/Q3396799', 'http://www.wikidata.org/entity/Q3396824', 'http://www.wikidata.org/entity/Q3396841', 'http://www.wikidata.org/entity/Q3396842', 'http://www.wikidata.org/entity/Q3396857', 'http://www.wikidata.org/entity/Q3396868', 'http://www.wikidata.org/entity/Q3396873', 'http://www.wikidata.org/entity/Q3396920', 'http://www.wikidata.org/entity/Q3396929', 'http://www.wikidata.org/entity/Q3396944', 'http://www.wikidata.org/entity/Q3396970', 'http://www.wikidata.org/entity/Q3397013', 'http://www.wikidata.org/entity/Q3397027', 'http://www.wikidata.org/entity/Q3397043', 'http://www.wikidata.org/entity/Q3397089', 'http://www.wikidata.org/entity/Q3397099', 'http://www.wikidata.org/entity/Q3397103', 'http://www.wikidata.org/entity/Q3397124', 'http://www.wikidata.org/entity/Q3397125', 'http://www.wikidata.org/entity/Q3397165', 'http://www.wikidata.org/entity/Q3397185', 'http://www.wikidata.org/entity/Q3397245', 'http://www.wikidata.org/entity/Q3397248', 'http://www.wikidata.org/entity/Q3397462', 'http://www.wikidata.org/entity/Q3397482', 'http://www.wikidata.org/entity/Q3397487', 'http://www.wikidata.org/entity/Q3397607', 'http://www.wikidata.org/entity/Q3397642', 'http://www.wikidata.org/entity/Q3397797', 'http://www.wikidata.org/entity/Q3401780', 'http://www.wikidata.org/entity/Q3556527', 'http://www.wikidata.org/entity/Q3556533', 'http://www.wikidata.org/entity/Q3556553', 'http://www.wikidata.org/entity/Q3556564', 'http://www.wikidata.org/entity/Q3556573', 'http://www.wikidata.org/entity/Q3556615', 'http://www.wikidata.org/entity/Q504710', 'http://www.wikidata.org/entity/Q95374345', 'http://www.wikidata.org/entity/Q95377822', 'http://www.wikidata.org/entity/Q95628130', 'http://www.wikidata.org/entity/Q95685874']</t>
         </is>
       </c>
       <c r="D65" t="b">
@@ -1738,37 +1738,37 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>Which musician wrote the most books?</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['http://www.wikidata.org/entity/Q113669']</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q14280']</t>
+          <t>['http://www.wikidata.org/entity/Q6069405']</t>
         </is>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
         </is>
       </c>
       <c r="D67" t="b">
@@ -1778,17 +1778,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>Give me a list of all bandleaders that play trumpet.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1930']</t>
+          <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1930']</t>
+          <t>['http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
         </is>
       </c>
       <c r="D68" t="b">
@@ -1798,57 +1798,57 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3808']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['Yaoundé']</t>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
         </is>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['1811']</t>
+          <t>['http://www.wikidata.org/entity/Q1930']</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['1487']</t>
+          <t>['http://www.wikidata.org/entity/Q1930']</t>
         </is>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
         </is>
       </c>
       <c r="D71" t="b">
@@ -1858,37 +1858,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>How much is the population of mexico city ?</t>
+          <t>How many programming languages are there?</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['1811']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['1487']</t>
         </is>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Who created Batman?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
         </is>
       </c>
       <c r="D73" t="b">
@@ -1898,17 +1898,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>How many people live in the capital of Australia?</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['381488']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['381488']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D74" t="b">
@@ -1918,17 +1918,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>Who created Batman?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['34112.5']</t>
+          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['34112.5']</t>
+          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
         </is>
       </c>
       <c r="D75" t="b">
@@ -1938,17 +1938,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>How many people live in the capital of Australia?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['352600']</t>
+          <t>['381488']</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['352600']</t>
+          <t>['381488']</t>
         </is>
       </c>
       <c r="D76" t="b">
@@ -1958,57 +1958,57 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>What movies does Jesse Eisenberg play in?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+          <t>['34112.5']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+          <t>['34112.5']</t>
         </is>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Give me all Danish movies.</t>
+          <t>How many employees does IBM have?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100235422', 'http://www.wikidata.org/entity/Q100272327', 'http://www.wikidata.org/entity/Q100272328', 'http://www.wikidata.org/entity/Q100272330', 'http://www.wikidata.org/entity/Q100272332', 'http://www.wikidata.org/entity/Q100272333', 'http://www.wikidata.org/entity/Q100272334', 'http://www.wikidata.org/entity/Q100272335', 'http://www.wikidata.org/entity/Q100272336', 'http://www.wikidata.org/entity/Q100272337', 'http://www.wikidata.org/entity/Q100272338', 'http://www.wikidata.org/entity/Q100272339', 'http://www.wikidata.org/entity/Q100272340', 'http://www.wikidata.org/entity/Q100272341', 'http://www.wikidata.org/entity/Q100272342', 'http://www.wikidata.org/entity/Q100272343', 'http://www.wikidata.org/entity/Q100272344', 'http://www.wikidata.org/entity/Q100272345', 'http://www.wikidata.org/entity/Q100272346', 'http://www.wikidata.org/entity/Q100272347', 'http://www.wikidata.org/entity/Q100272348', 'http://www.wikidata.org/entity/Q100272349', 'http://www.wikidata.org/entity/Q100272350', 'http://www.wikidata.org/entity/Q100272351', 'http://www.wikidata.org/entity/Q100272354', 'http://www.wikidata.org/entity/Q100272355', 'http://www.wikidata.org/entity/Q100272356', 'http://www.wikidata.org/entity/Q100272357', 'http://www.wikidata.org/entity/Q100272358', 'http://www.wikidata.org/entity/Q100272359', 'http://www.wikidata.org/entity/Q100272360', 'http://www.wikidata.org/entity/Q100272361', 'http://www.wikidata.org/entity/Q100272364', 'http://www.wikidata.org/entity/Q100272365', 'http://www.wikidata.org/entity/Q100272366', 'http://www.wikidata.org/entity/Q100272367', 'http://www.wikidata.org/entity/Q100272368', 'http://www.wikidata.org/entity/Q100272369', 'http://www.wikidata.org/entity/Q100272370', 'http://www.wikidata.org/entity/Q100272371', 'http://www.wikidata.org/entity/Q100272372', 'http://www.wikidata.org/entity/Q100272373', 'http://www.wikidata.org/entity/Q100272374', 'http://www.wikidata.org/entity/Q100272375', 'http://www.wikidata.org/entity/Q100272377', 'http://www.wikidata.org/entity/Q100272378', 'http://www.wikidata.org/entity/Q100272379', 'http://www.wikidata.org/entity/Q100272380', 'http://www.wikidata.org/entity/Q100272381', 'http://www.wikidata.org/entity/Q100272383', 'http://www.wikidata.org/entity/Q100272385', 'http://www.wikidata.org/entity/Q100272386', 'http://www.wikidata.org/entity/Q100272388', 'http://www.wikidata.org/entity/Q100272389', 'http://www.wikidata.org/entity/Q100272390', 'http://www.wikidata.org/entity/Q100272391', 'http://www.wikidata.org/entity/Q100272392', 'http://www.wikidata.org/entity/Q100272393', 'http://www.wikidata.org/entity/Q100272394', 'http://www.wikidata.org/entity/Q100272395', 'http://www.wikidata.org/entity/Q100272396', 'http://www.wikidata.org/entity/Q100272398', 'http://www.wikidata.org/entity/Q100272399', 'http://www.wikidata.org/entity/Q100272400', 'http://www.wikidata.org/entity/Q100272401', 'http://www.wikidata.org/entity/Q100272402', 'http://www.wikidata.org/entity/Q100272403', 'http://www.wikidata.org/entity/Q100272404', 'http://www.wikidata.org/entity/Q100272405', 'http://www.wikidata.org/entity/Q100272406', 'http://www.wikidata.org/entity/Q100272407', 'http://www.wikidata.org/entity/Q100272408', 'http://www.wikidata.org/entity/Q100272409', 'http://www.wikidata.org/entity/Q100272410', 'http://www.wikidata.org/entity/Q100272411', 'http://www.wikidata.org/entity/Q100272412', 'http://www.wikidata.org/entity/Q100272413', 'http://www.wikidata.org/entity/Q100272415', 'http://www.wikidata.org/entity/Q100272416', 'http://www.wikidata.org/entity/Q100272417', 'http://www.wikidata.org/entity/Q100272418', 'http://www.wikidata.org/entity/Q100272419', 'http://www.wikidata.org/entity/Q100272420', 'http://www.wikidata.org/entity/Q100272421', 'http://www.wikidata.org/entity/Q100272422', 'http://www.wikidata.org/entity/Q100272423', 'http://www.wikidata.org/entity/Q100272424', 'http://www.wikidata.org/entity/Q100272425', 'http://www.wikidata.org/entity/Q100272426', 'http://www.wikidata.org/entity/Q100272427', 'http://www.wikidata.org/entity/Q100272428', 'http://www.wikidata.org/entity/Q100272429', 'http://www.wikidata.org/entity/Q100272430', 'http://www.wikidata.org/entity/Q100272431', 'http://www.wikidata.org/entity/Q100272432', 'http://www.wikidata.org/entity/Q100272433', 'http://www.wikidata.org/entity/Q100272434', 'http://www.wikidata.org/entity/Q100272435', 'http://www.wikidata.org/entity/Q100272436', 'http://www.wikidata.org/entity/Q100272437', 'http://www.wikidata.org/entity/Q100272438', 'http://www.wikidata.org/entity/Q100334343', 'http://www.wikidata.org/entity/Q100334344', 'http://www.wikidata.org/entity/Q100334346', 'http://www.wikidata.org/entity/Q100334347', 'http://www.wikidata.org/entity/Q100334350', 'http://www.wikidata.org/entity/Q100334352', 'http://www.wikidata.org/entity/Q100334354', 'http://www.wikidata.org/entity/Q100334355', 'http://www.wikidata.org/entity/Q100334357', 'http://www.wikidata.org/entity/Q100334358', 'http://www.wikidata.org/entity/Q100334360', 'http://www.wikidata.org/entity/Q100334363', 'http://www.wikidata.org/entity/Q100334364', 'http://www.wikidata.org/entity/Q100334367', 'http://www.wikidata.org/entity/Q100334369', 'http://www.wikidata.org/entity/Q100334371', 'http://www.wikidata.org/entity/Q100334373', 'http://www.wikidata.org/entity/Q100334376', 'http://www.wikidata.org/entity/Q100334377', 'http://www.wikidata.org/entity/Q100334379', 'http://www.wikidata.org/entity/Q100334381', 'http://www.wikidata.org/entity/Q100334384', 'http://www.wikidata.org/entity/Q100334386', 'http://www.wikidata.org/entity/Q100334389', 'http://www.wikidata.org/entity/Q100334391', 'http://www.wikidata.org/entity/Q100334393', 'http://www.wikidata.org/entity/Q100334395', 'http://www.wikidata.org/entity/Q100334397', 'http://www.wikidata.org/entity/Q100334400', 'http://www.wikidata.org/entity/Q100334402', 'http://www.wikidata.org/entity/Q100334404', 'http://www.wikidata.org/entity/Q100334406', 'http://www.wikidata.org/entity/Q100334408', 'http://www.wikidata.org/entity/Q100334410', 'http://www.wikidata.org/entity/Q100334412', 'http://www.wikidata.org/entity/Q100334414', 'http://www.wikidata.org/entity/Q100334415', 'http://www.wikidata.org/entity/Q100334418', 'http://www.wikidata.org/entity/Q100334419', 'http://www.wikidata.org/entity/Q100334421', 'http://www.wikidata.org/entity/Q100334423', 'http://www.wikidata.org/entity/Q100334426', 'http://www.wikidata.org/entity/Q100334429', 'http://www.wikidata.org/entity/Q100334431', 'http://www.wikidata.org/entity/Q100334433', 'http://www.wikidata.org/entity/Q100334435', 'http://www.wikidata.org/entity/Q100334437', 'http://www.wikidata.org/entity/Q100334439', 'http://www.wikidata.org/entity/Q100334442', 'http://www.wikidata.org/entity/Q100334444', 'http://www.wikidata.org/entity/Q100334447', 'http://www.wikidata.org/entity/Q100334449', 'http://www.wikidata.org/entity/Q100334450', 'http://www.wikidata.org/entity/Q100334452', 'http://www.wikidata.org/entity/Q100334454', 'http://www.wikidata.org/entity/Q100334456', 'http://www.wikidata.org/entity/Q100334458', 'http://www.wikidata.org/entity/Q100334462', 'http://www.wikidata.org/entity/Q100334464', 'http://www.wikidata.org/entity/Q100334467', 'http://www.wikidata.org/entity/Q100334469', 'http://www.wikidata.org/entity/Q100334471', 'http://www.wikidata.org/entity/Q100334473', 'http://www.wikidata.org/entity/Q100334476', 'http://www.wikidata.org/entity/Q100334477', 'http://www.wikidata.org/entity/Q100334480', 'http://www.wikidata.org/entity/Q100334482', 'http://www.wikidata.org/entity/Q100334485', 'http://www.wikidata.org/entity/Q100334487', 'http://www.wikidata.org/entity/Q100334489', 'http://www.wikidata.org/entity/Q100334492', 'http://www.wikidata.org/entity/Q100334494', 'http://www.wikidata.org/entity/Q100334498', 'http://www.wikidata.org/entity/Q100334500', 'http://www.wikidata.org/entity/Q100334502', 'http://www.wikidata.org/entity/Q100334504', 'http://www.wikidata.org/entity/Q100334507', 'http://www.wikidata.org/entity/Q100334509', 'http://www.wikidata.org/entity/Q100334511', 'http://www.wikidata.org/entity/Q100334514', 'http://www.wikidata.org/entity/Q100334516', 'http://www.wikidata.org/entity/Q100334519', 'http://www.wikidata.org/entity/Q100334521', 'http://www.wikidata.org/entity/Q100334523', 'http://www.wikidata.org/entity/Q100334525', 'http://www.wikidata.org/entity/Q100334527', 'http://www.wikidata.org/entity/Q100334531', 'http://www.wikidata.org/entity/Q100334533', 'http://www.wikidata.org/entity/Q100334534', 'http://www.wikidata.org/entity/Q100334537', 'http://www.wikidata.org/entity/Q100334538', 'http://www.wikidata.org/entity/Q100334540', 'http://www.wikidata.org/entity/Q100334542', 'http://www.wikidata.org/entity/Q100334545', 'http://www.wikidata.org/entity/Q100334547', 'http://www.wikidata.org/entity/Q100334549', 'http://www.wikidata.org/entity/Q100334550', 'http://www.wikidata.org/entity/Q100334552', 'http://www.wikidata.org/entity/Q100334553', 'http://www.wikidata.org/entity/Q100334555', 'http://www.wikidata.org/entity/Q100334558', 'http://www.wikidata.org/entity/Q100334560', 'http://www.wikidata.org/entity/Q100334564', 'http://www.wikidata.org/entity/Q100334566', 'http://www.wikidata.org/entity/Q100334568', 'http://www.wikidata.org/entity/Q100334570', 'http://www.wikidata.org/entity/Q100334572', 'http://www.wikidata.org/entity/Q100334575', 'http://www.wikidata.org/entity/Q100334577', 'http://www.wikidata.org/entity/Q100334581', 'http://www.wikidata.org/entity/Q100334583', 'http://www.wikidata.org/entity/Q100334585', 'http://www.wikidata.org/entity/Q100334587', 'http://www.wikidata.org/entity/Q100334589', 'http://www.wikidata.org/entity/Q100334591', 'http://www.wikidata.org/entity/Q100334593', 'http://www.wikidata.org/entity/Q100334595', 'http://www.wikidata.org/entity/Q100334598', 'http://www.wikidata.org/entity/Q100334600', 'http://www.wikidata.org/entity/Q100334602', 'http://www.wikidata.org/entity/Q100334604', 'http://www.wikidata.org/entity/Q100334606', 'http://www.wikidata.org/entity/Q100334608', 'http://www.wikidata.org/entity/Q100334611', 'http://www.wikidata.org/entity/Q100334614', 'http://www.wikidata.org/entity/Q100334617', 'http://www.wikidata.org/entity/Q100334620', 'http://www.wikidata.org/entity/Q100334624', 'http://www.wikidata.org/entity/Q100334625', 'http://www.wikidata.org/entity/Q100334628', 'http://www.wikidata.org/entity/Q100334631', 'http://www.wikidata.org/entity/Q100334633', 'http://www.wikidata.org/entity/Q100334634', 'http://www.wikidata.org/entity/Q100334636', 'http://www.wikidata.org/entity/Q100334638', 'http://www.wikidata.org/entity/Q100334640', 'http://www.wikidata.org/entity/Q100334642', 'http://www.wikidata.org/entity/Q100334644', 'http://www.wikidata.org/entity/Q100334647', 'http://www.wikidata.org/entity/Q100334649', 'http://www.wikidata.org/entity/Q100334651', 'http://www.wikidata.org/entity/Q100334652', 'http://www.wikidata.org/entity/Q100334654', 'http://www.wikidata.org/entity/Q100334656', 'http://www.wikidata.org/entity/Q100334660', 'http://www.wikidata.org/entity/Q100334662', 'http://www.wikidata.org/entity/Q100334664', 'http://www.wikidata.org/entity/Q100334667', 'http://www.wikidata.org/entity/Q100334669', 'http://www.wikidata.org/entity/Q100334671', 'http://www.wikidata.org/entity/Q100334674', 'http://www.wikidata.org/entity/Q100334678', 'http://www.wikidata.org/entity/Q100334683', 'http://www.wikidata.org/entity/Q100334685', 'http://www.wikidata.org/entity/Q100334688', 'http://www.wikidata.org/entity/Q100334691', 'http://www.wikidata.org/entity/Q100334695', 'http://www.wikidata.org/entity/Q100334698', 'http://www.wikidata.org/entity/Q100334701', 'http://www.wikidata.org/entity/Q100334704', 'http://www.wikidata.org/entity/Q100334707', 'http://www.wikidata.org/entity/Q100334710', 'http://www.wikidata.org/entity/Q100334713', 'http://www.wikidata.org/entity/Q100334715', 'http://www.wikidata.org/entity/Q100334716', 'http://www.wikidata.org/entity/Q100334719', 'http://www.wikidata.org/entity/Q100334722', 'http://www.wikidata.org/entity/Q100334726', 'http://www.wikidata.org/entity/Q100334731', 'http://www.wikidata.org/entity/Q100334735', 'http://www.wikidata.org/entity/Q100334738', 'http://www.wikidata.org/entity/Q100334741', 'http://www.wikidata.org/entity/Q100334744', 'http://www.wikidata.org/entity/Q100334747', 'http://www.wikidata.org/entity/Q100334751', 'http://www.wikidata.org/entity/Q100334754', 'http://www.wikidata.org/entity/Q100334759', 'http://www.wikidata.org/entity/Q100334762', 'http://www.wikidata.org/entity/Q100334767', 'http://www.wikidata.org/entity/Q100334771', 'http://www.wikidata.org/entity/Q100334774', 'http://www.wikidata.org/entity/Q100334777', 'http://www.wikidata.org/entity/Q100334780', 'http://www.wikidata.org/entity/Q100334784', 'http://www.wikidata.org/entity/Q100334787', 'http://www.wikidata.org/entity/Q100334790', 'http://www.wikidata.org/entity/Q100334794', 'http://www.wikidata.org/entity/Q100334799', 'http://www.wikidata.org/entity/Q100334803', 'http://www.wikidata.org/entity/Q100334807', 'http://www.wikidata.org/entity/Q100334811', 'http://www.wikidata.org/entity/Q100334816', 'http://www.wikidata.org/entity/Q100334818', 'http://www.wikidata.org/entity/Q100334823', 'http://www.wikidata.org/entity/Q100334828', 'http://www.wikidata.org/entity/Q100334831', 'http://www.wikidata.org/entity/Q100334836', 'http://www.wikidata.org/entity/Q100334838', 'http://www.wikidata.org/entity/Q100334841', 'http://www.wikidata.org/entity/Q100334845', 'http://www.wikidata.org/entity/Q100334848', 'http://www.wikidata.org/entity/Q100334851', 'http://www.wikidata.org/entity/Q100334855', 'http://www.wikidata.org/entity/Q100334858', 'http://www.wikidata.org/entity/Q100334861', 'http://www.wikidata.org/entity/Q100334867', 'http://www.wikidata.org/entity/Q100334871', 'http://www.wikidata.org/entity/Q100334878', 'http://www.wikidata.org/entity/Q100334882', 'http://www.wikidata.org/entity/Q100334885', 'http://www.wikidata.org/entity/Q100334887', 'http://www.wikidata.org/entity/Q100334890', 'http://www.wikidata.org/entity/Q100334893', 'http://www.wikidata.org/entity/Q100334895', 'http://www.wikidata.org/entity/Q100334898', 'http://www.wikidata.org/entity/Q100334900', 'http://www.wikidata.org/entity/Q100334904', 'http://www.wikidata.org/entity/Q100334907', 'http://www.wikidata.org/entity/Q100334911', 'http://www.wikidata.org/entity/Q100334913', 'http://www.wikidata.org/entity/Q100334916', 'http://www.wikidata.org/entity/Q100334918', 'http://www.wikidata.org/entity/Q100334922', 'http://www.wikidata.org/entity/Q100334925', 'http://www.wikidata.org/entity/Q100334928', 'http://www.wikidata.org/entity/Q100334930', 'http://www.wikidata.org/entity/Q100334933', 'http://www.wikidata.org/entity/Q100334937', 'http://www.wikidata.org/entity/Q100334940', 'http://www.wikidata.org/entity/Q100334943', 'http://www.wikidata.org/entity/Q100334947', 'http://www.wikidata.org/entity/Q100334950', 'http://www.wikidata.org/entity/Q100334954', 'http://www.wikidata.org/entity/Q100334958', 'http://www.wikidata.org/entity/Q100334963', 'http://www.wikidata.org/entity/Q100334967', 'http://www.wikidata.org/entity/Q100334970', 'http://www.wikidata.org/entity/Q100334975', 'http://www.wikidata.org/entity/Q100334978', 'http://www.wikidata.org/entity/Q100334981', 'http://www.wikidata.org/entity/Q100334983', 'http://www.wikidata.org/entity/Q100334985', 'http://www.wikidata.org/entity/Q100334989', 'http://www.wikidata.org/entity/Q100334992', 'http://www.wikidata.org/entity/Q100334995', 'http://www.wikidata.org/entity/Q100334999', 'http://www.wikidata.org/entity/Q100335003', 'http://www.wikidata.org/entity/Q100335005', 'http://www.wikidata.org/entity/Q100335009', 'http://www.wikidata.org/entity/Q100335013', 'http://www.wikidata.org/entity/Q100335015', 'http://www.wikidata.org/entity/Q100335019', 'http://www.wikidata.org/entity/Q100335023', 'http://www.wikidata.org/entity/Q100335026', 'http://www.wikidata.org/entity/Q100335032', 'http://www.wikidata.org/entity/Q100335035', 'http://www.wikidata.org/entity/Q100335038', 'http://www.wikidata.org/entity/Q100335041', 'http://www.wikidata.org/entity/Q100335043', 'http://www.wikidata.org/entity/Q100335046', 'http://www.wikidata.org/entity/Q100335049', 'http://www.wikidata.org/entity/Q100335051', 'http://www.wikidata.org/entity/Q100335055', 'http://www.wikidata.org/entity/Q100335058', 'http://www.wikidata.org/entity/Q100335061', 'http://www.wikidata.org/entity/Q100335062', 'http://www.wikidata.org/entity/Q100335066', 'http://www.wikidata.org/entity/Q100335068', 'http://www.wikidata.org/entity/Q100335070', 'http://www.wikidata.org/entity/Q100335073', 'http://www.wikidata.org/entity/Q100335074', 'http://www.wikidata.org/entity/Q100335078', 'http://www.wikidata.org/entity/Q100335081', 'http://www.wikidata.org/entity/Q100335082', 'http://www.wikidata.org/entity/Q100335085', 'http://www.wikidata.org/entity/Q100335090', 'http://www.wikidata.org/entity/Q100335093', 'http://www.wikidata.org/entity/Q100335095', 'http://www.wikidata.org/entity/Q100335098', 'http://www.wikidata.org/entity/Q100335102', 'http://www.wikidata.org/entity/Q100335104', 'http://www.wikidata.org/entity/Q100335107', 'http://www.wikidata.org/entity/Q100335110', 'http://www.wikidata.org/entity/Q100335112', 'http://www.wikidata.org/entity/Q100335115', 'http://www.wikidata.org/entity/Q100335118', 'http://www.wikidata.org/entity/Q100335120', 'http://www.wikidata.org/entity/Q100335123', 'http://www.wikidata.org/entity/Q100335126', 'http://www.wikidata.org/entity/Q100335129', 'http://www.wikidata.org/entity/Q100335132', 'http://www.wikidata.org/entity/Q100335134', 'http://www.wikidata.org/entity/Q100335136', 'http://www.wikidata.org/entity/Q100335139', 'http://www.wikidata.org/entity/Q100335141', 'http://www.wikidata.org/entity/Q100335144', 'http://www.wikidata.org/entity/Q100335147', 'http://www.wikidata.org/entity/Q100335148', 'http://www.wikidata.org/entity/Q100335152', 'http://www.wikidata.org/entity/Q100335154', 'http://www.wikidata.org/entity/Q100335157', 'http://www.wikidata.org/entity/Q100335159', 'http://www.wikidata.org/entity/Q100335161', 'http://www.wikidata.org/entity/Q100335163', 'http://www.wikidata.org/entity/Q100335164', 'http://www.wikidata.org/entity/Q100335166', 'http://www.wikidata.org/entity/Q100335168', 'http://www.wikidata.org/entity/Q100335170', 'http://www.wikidata.org/entity/Q100335174', 'http://www.wikidata.org/entity/Q100335176', 'http://www.wikidata.org/entity/Q100335178', 'http://www.wikidata.org/entity/Q100335180', 'http://www.wikidata.org/entity/Q100335181', 'http://www.wikidata.org/entity/Q100335183', 'http://www.wikidata.org/entity/Q100335185', 'http://www.wikidata.org/entity/Q100335187', 'http://www.wikidata.org/entity/Q100335189', 'http://www.wikidata.org/entity/Q100335191', 'http://www.wikidata.org/entity/Q100335194', 'http://www.wikidata.org/entity/Q100335196', 'http://www.wikidata.org/entity/Q100335198', 'http://www.wikidata.org/entity/Q100335200', 'http://www.wikidata.org/entity/Q100335202', 'http://www.wikidata.org/entity/Q100335204', 'http://www.wikidata.org/entity/Q100335206', 'http://www.wikidata.org/entity/Q100335208', 'http://www.wikidata.org/entity/Q100335209', 'http://www.wikidata.org/entity/Q100335213', 'http://www.wikidata.org/entity/Q100335214', 'http://www.wikidata.org/entity/Q100335216', 'http://www.wikidata.org/entity/Q100335218', 'http://www.wikidata.org/entity/Q100335220', 'http://www.wikidata.org/entity/Q100335222', 'http://www.wikidata.org/entity/Q100335223', 'http://www.wikidata.org/entity/Q100335225', 'http://www.wikidata.org/entity/Q100335227', 'http://www.wikidata.org/entity/Q100335230', 'http://www.wikidata.org/entity/Q100335232', 'http://www.wikidata.org/entity/Q100335233', 'http://www.wikidata.org/entity/Q100335236', 'http://www.wikidata.org/entity/Q100335238', 'http://www.wikidata.org/entity/Q100335240', 'http://www.wikidata.org/entity/Q100335241', 'http://www.wikidata.org/entity/Q100335243', 'http://www.wikidata.org/entity/Q100335245', 'http://www.wikidata.org/entity/Q100335248', 'http://www.wikidata.org/entity/Q100335249', 'http://www.wikidata.org/entity/Q100335251', 'http://www.wikidata.org/entity/Q100335253', 'http://www.wikidata.org/entity/Q100335255', 'http://www.wikidata.org/entity/Q100335257', 'http://www.wikidata.org/entity/Q100335259', 'http://www.wikidata.org/entity/Q100335262', 'http://www.wikidata.org/entity/Q100335263', 'http://www.wikidata.org/entity/Q100335265', 'http://www.wikidata.org/entity/Q100335267', 'http://www.wikidata.org/entity/Q100335269', 'http://www.wikidata.org/entity/Q100335270', 'http://www.wikidata.org/entity/Q100335272', 'http://www.wikidata.org/entity/Q100335274', 'http://www.wikidata.org/entity/Q100335276', 'http://www.wikidata.org/entity/Q100335278', 'http://www.wikidata.org/entity/Q100335280', 'http://www.wikidata.org/entity/Q100335282', 'http://www.wikidata.org/entity/Q100335285', 'http://www.wikidata.org/entity/Q100335286', 'http://www.wikidata.org/entity/Q100335288', 'http://www.wikidata.org/entity/Q100335290', 'http://www.wikidata.org/entity/Q100335293', 'http://www.wikidata.org/entity/Q100335295', 'http://www.wikidata.org/entity/Q100335297', 'http://www.wikidata.org/entity/Q100335299', 'http://www.wikidata.org/entity/Q100335301', 'http://www.wikidata.org/entity/Q100335304', 'http://www.wikidata.org/entity/Q100335306', 'http://www.wikidata.org/entity/Q100335307', 'http://www.wikidata.org/entity/Q100335309', 'http://www.wikidata.org/entity/Q100335312', 'http://www.wikidata.org/entity/Q100335315', 'http://www.wikidata.org/entity/Q100335317', 'http://www.wikidata.org/entity/Q100335320', 'http://www.wikidata.org/entity/Q100335324', 'http://www.wikidata.org/entity/Q100335328', 'http://www.wikidata.org/entity/Q100335331', 'http://www.wikidata.org/entity/Q100335334', 'http://www.wikidata.org/entity/Q100335337', 'http://www.wikidata.org/entity/Q100335341', 'http://www.wikidata.org/entity/Q100335344', 'http://www.wikidata.org/entity/Q100335346', 'http://www.wikidata.org/entity/Q100335352', 'http://www.wikidata.org/entity/Q100335356', 'http://www.wikidata.org/entity/Q100335359', 'http://www.wikidata.org/entity/Q100335362', 'http://www.wikidata.org/entity/Q100335365', 'http://www.wikidata.org/entity/Q100335368', 'http://www.wikidata.org/entity/Q100335371', 'http://www.wikidata.org/entity/Q100335374', 'http://www.wikidata.org/entity/Q100335377', 'http://www.wikidata.org/entity/Q100335379', 'http://www.wikidata.org/entity/Q100335383', 'http://www.wikidata.org/entity/Q100335387', 'http://www.wikidata.org/entity/Q100335390', 'http://www.wikidata.org/entity/Q100335393', 'http://www.wikidata.org/entity/Q100335396', 'http://www.wikidata.org/entity/Q100335399', 'http://www.wikidata.org/entity/Q100335403', 'http://www.wikidata.org/entity/Q100335405', 'http://www.wikidata.org/entity/Q100335408', 'http://www.wikidata.org/entity/Q100335411', 'http://www.wikidata.org/entity/Q100335415', 'http://www.wikidata.org/entity/Q100335418', 'http://www.wikidata.org/entity/Q100335421', 'http://www.wikidata.org/entity/Q100335424', 'http://www.wikidata.org/entity/Q100335428', 'http://www.wikidata.org/entity/Q100335431', 'http://www.wikidata.org/entity/Q100335434', 'http://www.wikidata.org/entity/Q100335437', 'http://www.wikidata.org/entity/Q100335440', 'http://www.wikidata.org/entity/Q100335444', 'http://www.wikidata.org/entity/Q100335446', 'http://www.wikidata.org/entity/Q100335450', 'http://www.wikidata.org/entity/Q100335453', 'http://www.wikidata.org/entity/Q100335455', 'http://www.wikidata.org/entity/Q100335458', 'http://www.wikidata.org/entity/Q100335461', 'http://www.wikidata.org/entity/Q100335463', 'http://www.wikidata.org/entity/Q100335466', 'http://www.wikidata.org/entity/Q100335469', 'http://www.wikidata.org/entity/Q100335472', 'http://www.wikidata.org/entity/Q100335475', 'http://www.wikidata.org/entity/Q100335479', 'http://www.wikidata.org/entity/Q100335482', 'http://www.wikidata.org/entity/Q100335485', 'http://www.wikidata.org/entity/Q100335488', 'http://www.wikidata.org/entity/Q100335491', 'http://www.wikidata.org/entity/Q100335494', 'http://www.wikidata.org/entity/Q100335497', 'http://www.wikidata.org/entity/Q100335501', 'http://www.wikidata.org/entity/Q100335504', 'http://www.wikidata.org/entity/Q100335507', 'http://www.wikidata.org/entity/Q100335508', 'http://www.wikidata.org/entity/Q100335512', 'http://www.wikidata.org/entity/Q100335515', 'http://www.wikidata.org/entity/Q100335518', 'http://www.wikidata.org/entity/Q100335521', 'http://www.wikidata.org/entity/Q100335524', 'http://www.wikidata.org/entity/Q100335528', 'http://www.wikidata.org/entity/Q100335531', 'http://www.wikidata.org/entity/Q100335534', 'http://www.wikidata.org/entity/Q100335540', 'http://www.wikidata.org/entity/Q100335542', 'http://www.wikidata.org/entity/Q100335545', 'http://www.wikidata.org/entity/Q100335547', 'http://www.wikidata.org/entity/Q100335550', 'http://www.wikidata.org/entity/Q100335553', 'http://www.wikidata.org/entity/Q100335556', 'http://www.wikidata.org/entity/Q100335560', 'http://www.wikidata.org/entity/Q100335563', 'http://www.wikidata.org/entity/Q100335566', 'http://www.wikidata.org/entity/Q100335570', 'http://www.wikidata.org/entity/Q100335573', 'http://www.wikidata.org/entity/Q100335575', 'http://www.wikidata.org/entity/Q100335578', 'http://www.wikidata.org/entity/Q100335581', 'http://www.wikidata.org/entity/Q100335584', 'http://www.wikidata.org/entity/Q100335588', 'http://www.wikidata.org/entity/Q100335591', 'http://www.wikidata.org/entity/Q100335594', 'http://www.wikidata.org/entity/Q100335596', 'http://www.wikidata.org/entity/Q100335599', 'http://www.wikidata.org/entity/Q100335602', 'http://www.wikidata.org/entity/Q100335605', 'http://www.wikidata.org/entity/Q100335608', 'http://www.wikidata.org/entity/Q100335611', 'http://www.wikidata.org/entity/Q100335614', 'http://www.wikidata.org/entity/Q100335617', 'http://www.wikidata.org/entity/Q100335621', 'http://www.wikidata.org/entity/Q100335624', 'http://www.wikidata.org/entity/Q100335626', 'http://www.wikidata.org/entity/Q100335629', 'http://www.wikidata.org/entity/Q100335632', 'http://www.wikidata.org/entity/Q100335634', 'http://www.wikidata.org/entity/Q100335637', 'http://www.wikidata.org/entity/Q100335641', 'http://www.wikidata.org/entity/Q100335643', 'http://www.wikidata.org/entity/Q100335647', 'http://www.wikidata.org/entity/Q100335649', 'http://www.wikidata.org/entity/Q100335652', 'http://www.wikidata.org/entity/Q100335656', 'http://www.wikidata.org/entity/Q100335659', 'http://www.wikidata.org/entity/Q100335662', 'http://www.wikidata.org/entity/Q100335665', 'http://www.wikidata.org/entity/Q100335668', 'http://www.wikidata.org/entity/Q100335672', 'http://www.wikidata.org/entity/Q100335675', 'http://www.wikidata.org/entity/Q100335677', 'http://www.wikidata.org/entity/Q100335681', 'http://www.wikidata.org/entity/Q100335684', 'http://www.wikidata.org/entity/Q100335687', 'http://www.wikidata.org/entity/Q100335690', 'http://www.wikidata.org/entity/Q100335693', 'http://www.wikidata.org/entity/Q100335696', 'http://www.wikidata.org/entity/Q100335700', 'http://www.wikidata.org/entity/Q100335703', 'http://www.wikidata.org/entity/Q100335706', 'http://www.wikidata.org/entity/Q100335708', 'http://www.wikidata.org/entity/Q100335711', 'http://www.wikidata.org/entity/Q100335714', 'http://www.wikidata.org/entity/Q100335718', 'http://www.wikidata.org/entity/Q100335722', 'http://www.wikidata.org/entity/Q100335726', 'http://www.wikidata.org/entity/Q100335729', 'http://www.wikidata.org/entity/Q100335731', 'http://www.wikidata.org/entity/Q100335734', 'http://www.wikidata.org/entity/Q100335737', 'http://www.wikidata.org/entity/Q100335740', 'http://www.wikidata.org/entity/Q100335742', 'http://www.wikidata.org/entity/Q100335745', 'http://www.wikidata.org/entity/Q100335748', 'http://www.wikidata.org/entity/Q100335751', 'http://www.wikidata.org/entity/Q100335754', 'http://www.wikidata.org/entity/Q100335757', 'http://www.wikidata.org/entity/Q100335759', 'http://www.wikidata.org/entity/Q100335762', 'http://www.wikidata.org/entity/Q100335765', 'http://www.wikidata.org/entity/Q100335768', 'http://www.wikidata.org/entity/Q100335771', 'http://www.wikidata.org/entity/Q100335775', 'http://www.wikidata.org/entity/Q100335779', 'http://www.wikidata.org/entity/Q100335782', 'http://www.wikidata.org/entity/Q100335785', 'http://www.wikidata.org/entity/Q100335788', 'http://www.wikidata.org/entity/Q100335791', 'http://www.wikidata.org/entity/Q100335794', 'http://www.wikidata.org/entity/Q100335797', 'http://www.wikidata.org/entity/Q100335800', 'http://www.wikidata.org/entity/Q100335804', 'http://www.wikidata.org/entity/Q100335808', 'http://www.wikidata.org/entity/Q100335811', 'http://www.wikidata.org/entity/Q100335814', 'http://www.wikidata.org/entity/Q100335817', 'http://www.wikidata.org/entity/Q100335820', 'http://www.wikidata.org/entity/Q100335823', 'http://www.wikidata.org/entity/Q100335826', 'http://www.wikidata.org/entity/Q100335829', 'http://www.wikidata.org/entity/Q100335832', 'http://www.wikidata.org/entity/Q100335836', 'http://www.wikidata.org/entity/Q100335839', 'http://www.wikidata.org/entity/Q100335843', 'http://www.wikidata.org/entity/Q100335846', 'http://www.wikidata.org/entity/Q100335849', 'http://www.wikidata.org/entity/Q100335851', 'http://www.wikidata.org/entity/Q100335858', 'http://www.wikidata.org/entity/Q100335861', 'http://www.wikidata.org/entity/Q100335864', 'http://www.wikidata.org/entity/Q100335867', 'http://www.wikidata.org/entity/Q100335870', 'http://www.wikidata.org/entity/Q100335873', 'http://www.wikidata.org/entity/Q100335877', 'http://www.wikidata.org/entity/Q100335879', 'http://www.wikidata.org/entity/Q100335883', 'http://www.wikidata.org/entity/Q100335887', 'http://www.wikidata.org/entity/Q100335888', 'http://www.wikidata.org/entity/Q100335893', 'http://www.wikidata.org/entity/Q100335895', 'http://www.wikidata.org/entity/Q100335897', 'http://www.wikidata.org/entity/Q100335900', 'http://www.wikidata.org/entity/Q100335904', 'http://www.wikidata.org/entity/Q100335906', 'http://www.wikidata.org/entity/Q100335909', 'http://www.wikidata.org/entity/Q100335913', 'http://www.wikidata.org/entity/Q100335916', 'http://www.wikidata.org/entity/Q100335920', 'http://www.wikidata.org/entity/Q100335922', 'http://www.wikidata.org/entity/Q100335924', 'http://www.wikidata.org/entity/Q100335926', 'http://www.wikidata.org/entity/Q100335929', 'http://www.wikidata.org/entity/Q100335931', 'http://www.wikidata.org/entity/Q100335932', 'http://www.wikidata.org/entity/Q100335934', 'http://www.wikidata.org/entity/Q100335936', 'http://www.wikidata.org/entity/Q100335939', 'http://www.wikidata.org/entity/Q100335940', 'http://www.wikidata.org/entity/Q100335943', 'http://www.wikidata.org/entity/Q100335945', 'http://www.wikidata.org/entity/Q100335947', 'http://www.wikidata.org/entity/Q100335949', 'http://www.wikidata.org/entity/Q100335951', 'http://www.wikidata.org/entity/Q100335954', 'http://www.wikidata.org/entity/Q100335955', 'http://www.wikidata.org/entity/Q100335958', 'http://www.wikidata.org/entity/Q100335959', 'http://www.wikidata.org/entity/Q100335961', 'http://www.wikidata.org/entity/Q100335963', 'http://www.wikidata.org/entity/Q100335965', 'http://www.wikidata.org/entity/Q100335967', 'http://www.wikidata.org/entity/Q100335969', 'http://www.wikidata.org/entity/Q100335970', 'http://www.wikidata.org/entity/Q100335973', 'http://www.wikidata.org/entity/Q100335975', 'http://www.wikidata.org/entity/Q100335976', 'http://www.wikidata.org/entity/Q100335978', 'http://www.wikidata.org/entity/Q100335980', 'http://www.wikidata.org/entity/Q100335982', 'http://www.wikidata.org/entity/Q100335983', 'http://www.wikidata.org/entity/Q100335985', 'http://www.wikidata.org/entity/Q100335987', 'http://www.wikidata.org/entity/Q100335990', 'http://www.wikidata.org/entity/Q100335992', 'http://www.wikidata.org/entity/Q100335994', 'http://www.wikidata.org/entity/Q100335995', 'http://www.wikidata.org/entity/Q100335997', 'http://www.wikidata.org/entity/Q100335998', 'http://www.wikidata.org/entity/Q100336000', 'http://www.wikidata.org/entity/Q100336001', 'http://www.wikidata.org/entity/Q100336004', 'http://www.wikidata.org/entity/Q100336006', 'http://www.wikidata.org/entity/Q100336007', 'http://www.wikidata.org/entity/Q100336009', 'http://www.wikidata.org/entity/Q100336011', 'http://www.wikidata.org/entity/Q100336012', 'http://www.wikidata.org/entity/Q100336014', 'http://www.wikidata.org/entity/Q100336016', 'http://www.wikidata.org/entity/Q100336018', 'http://www.wikidata.org/entity/Q100336020', 'http://www.wikidata.org/entity/Q100336022', 'http:</t>
+          <t>['352600']</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q20494829']</t>
+          <t>['352600']</t>
         </is>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
+          <t>What movies does Jesse Eisenberg play in?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q252', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+          <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
         </is>
       </c>
       <c r="D79" t="b">
@@ -2018,17 +2018,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>What is the largest country in the world?</t>
+          <t>Give me all Danish movies.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q124003554']</t>
+          <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100235422', 'http://www.wikidata.org/entity/Q100272327', 'http://www.wikidata.org/entity/Q100272328', 'http://www.wikidata.org/entity/Q100272330', 'http://www.wikidata.org/entity/Q100272332', 'http://www.wikidata.org/entity/Q100272333', 'http://www.wikidata.org/entity/Q100272334', 'http://www.wikidata.org/entity/Q100272335', 'http://www.wikidata.org/entity/Q100272336', 'http://www.wikidata.org/entity/Q100272337', 'http://www.wikidata.org/entity/Q100272338', 'http://www.wikidata.org/entity/Q100272339', 'http://www.wikidata.org/entity/Q100272340', 'http://www.wikidata.org/entity/Q100272341', 'http://www.wikidata.org/entity/Q100272342', 'http://www.wikidata.org/entity/Q100272343', 'http://www.wikidata.org/entity/Q100272344', 'http://www.wikidata.org/entity/Q100272345', 'http://www.wikidata.org/entity/Q100272346', 'http://www.wikidata.org/entity/Q100272347', 'http://www.wikidata.org/entity/Q100272348', 'http://www.wikidata.org/entity/Q100272349', 'http://www.wikidata.org/entity/Q100272350', 'http://www.wikidata.org/entity/Q100272351', 'http://www.wikidata.org/entity/Q100272354', 'http://www.wikidata.org/entity/Q100272355', 'http://www.wikidata.org/entity/Q100272356', 'http://www.wikidata.org/entity/Q100272357', 'http://www.wikidata.org/entity/Q100272358', 'http://www.wikidata.org/entity/Q100272359', 'http://www.wikidata.org/entity/Q100272360', 'http://www.wikidata.org/entity/Q100272361', 'http://www.wikidata.org/entity/Q100272364', 'http://www.wikidata.org/entity/Q100272365', 'http://www.wikidata.org/entity/Q100272366', 'http://www.wikidata.org/entity/Q100272367', 'http://www.wikidata.org/entity/Q100272368', 'http://www.wikidata.org/entity/Q100272369', 'http://www.wikidata.org/entity/Q100272370', 'http://www.wikidata.org/entity/Q100272371', 'http://www.wikidata.org/entity/Q100272372', 'http://www.wikidata.org/entity/Q100272373', 'http://www.wikidata.org/entity/Q100272374', 'http://www.wikidata.org/entity/Q100272375', 'http://www.wikidata.org/entity/Q100272377', 'http://www.wikidata.org/entity/Q100272378', 'http://www.wikidata.org/entity/Q100272379', 'http://www.wikidata.org/entity/Q100272380', 'http://www.wikidata.org/entity/Q100272381', 'http://www.wikidata.org/entity/Q100272383', 'http://www.wikidata.org/entity/Q100272385', 'http://www.wikidata.org/entity/Q100272386', 'http://www.wikidata.org/entity/Q100272388', 'http://www.wikidata.org/entity/Q100272389', 'http://www.wikidata.org/entity/Q100272390', 'http://www.wikidata.org/entity/Q100272391', 'http://www.wikidata.org/entity/Q100272392', 'http://www.wikidata.org/entity/Q100272393', 'http://www.wikidata.org/entity/Q100272394', 'http://www.wikidata.org/entity/Q100272395', 'http://www.wikidata.org/entity/Q100272396', 'http://www.wikidata.org/entity/Q100272398', 'http://www.wikidata.org/entity/Q100272399', 'http://www.wikidata.org/entity/Q100272400', 'http://www.wikidata.org/entity/Q100272401', 'http://www.wikidata.org/entity/Q100272402', 'http://www.wikidata.org/entity/Q100272403', 'http://www.wikidata.org/entity/Q100272404', 'http://www.wikidata.org/entity/Q100272405', 'http://www.wikidata.org/entity/Q100272406', 'http://www.wikidata.org/entity/Q100272407', 'http://www.wikidata.org/entity/Q100272408', 'http://www.wikidata.org/entity/Q100272409', 'http://www.wikidata.org/entity/Q100272410', 'http://www.wikidata.org/entity/Q100272411', 'http://www.wikidata.org/entity/Q100272412', 'http://www.wikidata.org/entity/Q100272413', 'http://www.wikidata.org/entity/Q100272415', 'http://www.wikidata.org/entity/Q100272416', 'http://www.wikidata.org/entity/Q100272417', 'http://www.wikidata.org/entity/Q100272418', 'http://www.wikidata.org/entity/Q100272419', 'http://www.wikidata.org/entity/Q100272420', 'http://www.wikidata.org/entity/Q100272421', 'http://www.wikidata.org/entity/Q100272422', 'http://www.wikidata.org/entity/Q100272423', 'http://www.wikidata.org/entity/Q100272424', 'http://www.wikidata.org/entity/Q100272425', 'http://www.wikidata.org/entity/Q100272426', 'http://www.wikidata.org/entity/Q100272427', 'http://www.wikidata.org/entity/Q100272428', 'http://www.wikidata.org/entity/Q100272429', 'http://www.wikidata.org/entity/Q100272430', 'http://www.wikidata.org/entity/Q100272431', 'http://www.wikidata.org/entity/Q100272432', 'http://www.wikidata.org/entity/Q100272433', 'http://www.wikidata.org/entity/Q100272434', 'http://www.wikidata.org/entity/Q100272435', 'http://www.wikidata.org/entity/Q100272436', 'http://www.wikidata.org/entity/Q100272437', 'http://www.wikidata.org/entity/Q100272438', 'http://www.wikidata.org/entity/Q100334343', 'http://www.wikidata.org/entity/Q100334344', 'http://www.wikidata.org/entity/Q100334346', 'http://www.wikidata.org/entity/Q100334347', 'http://www.wikidata.org/entity/Q100334350', 'http://www.wikidata.org/entity/Q100334352', 'http://www.wikidata.org/entity/Q100334354', 'http://www.wikidata.org/entity/Q100334355', 'http://www.wikidata.org/entity/Q100334357', 'http://www.wikidata.org/entity/Q100334358', 'http://www.wikidata.org/entity/Q100334360', 'http://www.wikidata.org/entity/Q100334363', 'http://www.wikidata.org/entity/Q100334364', 'http://www.wikidata.org/entity/Q100334367', 'http://www.wikidata.org/entity/Q100334369', 'http://www.wikidata.org/entity/Q100334371', 'http://www.wikidata.org/entity/Q100334373', 'http://www.wikidata.org/entity/Q100334376', 'http://www.wikidata.org/entity/Q100334377', 'http://www.wikidata.org/entity/Q100334379', 'http://www.wikidata.org/entity/Q100334381', 'http://www.wikidata.org/entity/Q100334384', 'http://www.wikidata.org/entity/Q100334386', 'http://www.wikidata.org/entity/Q100334389', 'http://www.wikidata.org/entity/Q100334391', 'http://www.wikidata.org/entity/Q100334393', 'http://www.wikidata.org/entity/Q100334395', 'http://www.wikidata.org/entity/Q100334397', 'http://www.wikidata.org/entity/Q100334400', 'http://www.wikidata.org/entity/Q100334402', 'http://www.wikidata.org/entity/Q100334404', 'http://www.wikidata.org/entity/Q100334406', 'http://www.wikidata.org/entity/Q100334408', 'http://www.wikidata.org/entity/Q100334410', 'http://www.wikidata.org/entity/Q100334412', 'http://www.wikidata.org/entity/Q100334414', 'http://www.wikidata.org/entity/Q100334415', 'http://www.wikidata.org/entity/Q100334418', 'http://www.wikidata.org/entity/Q100334419', 'http://www.wikidata.org/entity/Q100334421', 'http://www.wikidata.org/entity/Q100334423', 'http://www.wikidata.org/entity/Q100334426', 'http://www.wikidata.org/entity/Q100334429', 'http://www.wikidata.org/entity/Q100334431', 'http://www.wikidata.org/entity/Q100334433', 'http://www.wikidata.org/entity/Q100334435', 'http://www.wikidata.org/entity/Q100334437', 'http://www.wikidata.org/entity/Q100334439', 'http://www.wikidata.org/entity/Q100334442', 'http://www.wikidata.org/entity/Q100334444', 'http://www.wikidata.org/entity/Q100334447', 'http://www.wikidata.org/entity/Q100334449', 'http://www.wikidata.org/entity/Q100334450', 'http://www.wikidata.org/entity/Q100334452', 'http://www.wikidata.org/entity/Q100334454', 'http://www.wikidata.org/entity/Q100334456', 'http://www.wikidata.org/entity/Q100334458', 'http://www.wikidata.org/entity/Q100334462', 'http://www.wikidata.org/entity/Q100334464', 'http://www.wikidata.org/entity/Q100334467', 'http://www.wikidata.org/entity/Q100334469', 'http://www.wikidata.org/entity/Q100334471', 'http://www.wikidata.org/entity/Q100334473', 'http://www.wikidata.org/entity/Q100334476', 'http://www.wikidata.org/entity/Q100334477', 'http://www.wikidata.org/entity/Q100334480', 'http://www.wikidata.org/entity/Q100334482', 'http://www.wikidata.org/entity/Q100334485', 'http://www.wikidata.org/entity/Q100334487', 'http://www.wikidata.org/entity/Q100334489', 'http://www.wikidata.org/entity/Q100334492', 'http://www.wikidata.org/entity/Q100334494', 'http://www.wikidata.org/entity/Q100334498', 'http://www.wikidata.org/entity/Q100334500', 'http://www.wikidata.org/entity/Q100334502', 'http://www.wikidata.org/entity/Q100334504', 'http://www.wikidata.org/entity/Q100334507', 'http://www.wikidata.org/entity/Q100334509', 'http://www.wikidata.org/entity/Q100334511', 'http://www.wikidata.org/entity/Q100334514', 'http://www.wikidata.org/entity/Q100334516', 'http://www.wikidata.org/entity/Q100334519', 'http://www.wikidata.org/entity/Q100334521', 'http://www.wikidata.org/entity/Q100334523', 'http://www.wikidata.org/entity/Q100334525', 'http://www.wikidata.org/entity/Q100334527', 'http://www.wikidata.org/entity/Q100334531', 'http://www.wikidata.org/entity/Q100334533', 'http://www.wikidata.org/entity/Q100334534', 'http://www.wikidata.org/entity/Q100334537', 'http://www.wikidata.org/entity/Q100334538', 'http://www.wikidata.org/entity/Q100334540', 'http://www.wikidata.org/entity/Q100334542', 'http://www.wikidata.org/entity/Q100334545', 'http://www.wikidata.org/entity/Q100334547', 'http://www.wikidata.org/entity/Q100334549', 'http://www.wikidata.org/entity/Q100334550', 'http://www.wikidata.org/entity/Q100334552', 'http://www.wikidata.org/entity/Q100334553', 'http://www.wikidata.org/entity/Q100334555', 'http://www.wikidata.org/entity/Q100334558', 'http://www.wikidata.org/entity/Q100334560', 'http://www.wikidata.org/entity/Q100334564', 'http://www.wikidata.org/entity/Q100334566', 'http://www.wikidata.org/entity/Q100334568', 'http://www.wikidata.org/entity/Q100334570', 'http://www.wikidata.org/entity/Q100334572', 'http://www.wikidata.org/entity/Q100334575', 'http://www.wikidata.org/entity/Q100334577', 'http://www.wikidata.org/entity/Q100334581', 'http://www.wikidata.org/entity/Q100334583', 'http://www.wikidata.org/entity/Q100334585', 'http://www.wikidata.org/entity/Q100334587', 'http://www.wikidata.org/entity/Q100334589', 'http://www.wikidata.org/entity/Q100334591', 'http://www.wikidata.org/entity/Q100334593', 'http://www.wikidata.org/entity/Q100334595', 'http://www.wikidata.org/entity/Q100334598', 'http://www.wikidata.org/entity/Q100334600', 'http://www.wikidata.org/entity/Q100334602', 'http://www.wikidata.org/entity/Q100334604', 'http://www.wikidata.org/entity/Q100334606', 'http://www.wikidata.org/entity/Q100334608', 'http://www.wikidata.org/entity/Q100334611', 'http://www.wikidata.org/entity/Q100334614', 'http://www.wikidata.org/entity/Q100334617', 'http://www.wikidata.org/entity/Q100334620', 'http://www.wikidata.org/entity/Q100334624', 'http://www.wikidata.org/entity/Q100334625', 'http://www.wikidata.org/entity/Q100334628', 'http://www.wikidata.org/entity/Q100334631', 'http://www.wikidata.org/entity/Q100334633', 'http://www.wikidata.org/entity/Q100334634', 'http://www.wikidata.org/entity/Q100334636', 'http://www.wikidata.org/entity/Q100334638', 'http://www.wikidata.org/entity/Q100334640', 'http://www.wikidata.org/entity/Q100334642', 'http://www.wikidata.org/entity/Q100334644', 'http://www.wikidata.org/entity/Q100334647', 'http://www.wikidata.org/entity/Q100334649', 'http://www.wikidata.org/entity/Q100334651', 'http://www.wikidata.org/entity/Q100334652', 'http://www.wikidata.org/entity/Q100334654', 'http://www.wikidata.org/entity/Q100334656', 'http://www.wikidata.org/entity/Q100334660', 'http://www.wikidata.org/entity/Q100334662', 'http://www.wikidata.org/entity/Q100334664', 'http://www.wikidata.org/entity/Q100334667', 'http://www.wikidata.org/entity/Q100334669', 'http://www.wikidata.org/entity/Q100334671', 'http://www.wikidata.org/entity/Q100334674', 'http://www.wikidata.org/entity/Q100334678', 'http://www.wikidata.org/entity/Q100334683', 'http://www.wikidata.org/entity/Q100334685', 'http://www.wikidata.org/entity/Q100334688', 'http://www.wikidata.org/entity/Q100334691', 'http://www.wikidata.org/entity/Q100334695', 'http://www.wikidata.org/entity/Q100334698', 'http://www.wikidata.org/entity/Q100334701', 'http://www.wikidata.org/entity/Q100334704', 'http://www.wikidata.org/entity/Q100334707', 'http://www.wikidata.org/entity/Q100334710', 'http://www.wikidata.org/entity/Q100334713', 'http://www.wikidata.org/entity/Q100334715', 'http://www.wikidata.org/entity/Q100334716', 'http://www.wikidata.org/entity/Q100334719', 'http://www.wikidata.org/entity/Q100334722', 'http://www.wikidata.org/entity/Q100334726', 'http://www.wikidata.org/entity/Q100334731', 'http://www.wikidata.org/entity/Q100334735', 'http://www.wikidata.org/entity/Q100334738', 'http://www.wikidata.org/entity/Q100334741', 'http://www.wikidata.org/entity/Q100334744', 'http://www.wikidata.org/entity/Q100334747', 'http://www.wikidata.org/entity/Q100334751', 'http://www.wikidata.org/entity/Q100334754', 'http://www.wikidata.org/entity/Q100334759', 'http://www.wikidata.org/entity/Q100334762', 'http://www.wikidata.org/entity/Q100334767', 'http://www.wikidata.org/entity/Q100334771', 'http://www.wikidata.org/entity/Q100334774', 'http://www.wikidata.org/entity/Q100334777', 'http://www.wikidata.org/entity/Q100334780', 'http://www.wikidata.org/entity/Q100334784', 'http://www.wikidata.org/entity/Q100334787', 'http://www.wikidata.org/entity/Q100334790', 'http://www.wikidata.org/entity/Q100334794', 'http://www.wikidata.org/entity/Q100334799', 'http://www.wikidata.org/entity/Q100334803', 'http://www.wikidata.org/entity/Q100334807', 'http://www.wikidata.org/entity/Q100334811', 'http://www.wikidata.org/entity/Q100334816', 'http://www.wikidata.org/entity/Q100334818', 'http://www.wikidata.org/entity/Q100334823', 'http://www.wikidata.org/entity/Q100334828', 'http://www.wikidata.org/entity/Q100334831', 'http://www.wikidata.org/entity/Q100334836', 'http://www.wikidata.org/entity/Q100334838', 'http://www.wikidata.org/entity/Q100334841', 'http://www.wikidata.org/entity/Q100334845', 'http://www.wikidata.org/entity/Q100334848', 'http://www.wikidata.org/entity/Q100334851', 'http://www.wikidata.org/entity/Q100334855', 'http://www.wikidata.org/entity/Q100334858', 'http://www.wikidata.org/entity/Q100334861', 'http://www.wikidata.org/entity/Q100334867', 'http://www.wikidata.org/entity/Q100334871', 'http://www.wikidata.org/entity/Q100334878', 'http://www.wikidata.org/entity/Q100334882', 'http://www.wikidata.org/entity/Q100334885', 'http://www.wikidata.org/entity/Q100334887', 'http://www.wikidata.org/entity/Q100334890', 'http://www.wikidata.org/entity/Q100334893', 'http://www.wikidata.org/entity/Q100334895', 'http://www.wikidata.org/entity/Q100334898', 'http://www.wikidata.org/entity/Q100334900', 'http://www.wikidata.org/entity/Q100334904', 'http://www.wikidata.org/entity/Q100334907', 'http://www.wikidata.org/entity/Q100334911', 'http://www.wikidata.org/entity/Q100334913', 'http://www.wikidata.org/entity/Q100334916', 'http://www.wikidata.org/entity/Q100334918', 'http://www.wikidata.org/entity/Q100334922', 'http://www.wikidata.org/entity/Q100334925', 'http://www.wikidata.org/entity/Q100334928', 'http://www.wikidata.org/entity/Q100334930', 'http://www.wikidata.org/entity/Q100334933', 'http://www.wikidata.org/entity/Q100334937', 'http://www.wikidata.org/entity/Q100334940', 'http://www.wikidata.org/entity/Q100334943', 'http://www.wikidata.org/entity/Q100334947', 'http://www.wikidata.org/entity/Q100334950', 'http://www.wikidata.org/entity/Q100334954', 'http://www.wikidata.org/entity/Q100334958', 'http://www.wikidata.org/entity/Q100334963', 'http://www.wikidata.org/entity/Q100334967', 'http://www.wikidata.org/entity/Q100334970', 'http://www.wikidata.org/entity/Q100334975', 'http://www.wikidata.org/entity/Q100334978', 'http://www.wikidata.org/entity/Q100334981', 'http://www.wikidata.org/entity/Q100334983', 'http://www.wikidata.org/entity/Q100334985', 'http://www.wikidata.org/entity/Q100334989', 'http://www.wikidata.org/entity/Q100334992', 'http://www.wikidata.org/entity/Q100334995', 'http://www.wikidata.org/entity/Q100334999', 'http://www.wikidata.org/entity/Q100335003', 'http://www.wikidata.org/entity/Q100335005', 'http://www.wikidata.org/entity/Q100335009', 'http://www.wikidata.org/entity/Q100335013', 'http://www.wikidata.org/entity/Q100335015', 'http://www.wikidata.org/entity/Q100335019', 'http://www.wikidata.org/entity/Q100335023', 'http://www.wikidata.org/entity/Q100335026', 'http://www.wikidata.org/entity/Q100335032', 'http://www.wikidata.org/entity/Q100335035', 'http://www.wikidata.org/entity/Q100335038', 'http://www.wikidata.org/entity/Q100335041', 'http://www.wikidata.org/entity/Q100335043', 'http://www.wikidata.org/entity/Q100335046', 'http://www.wikidata.org/entity/Q100335049', 'http://www.wikidata.org/entity/Q100335051', 'http://www.wikidata.org/entity/Q100335055', 'http://www.wikidata.org/entity/Q100335058', 'http://www.wikidata.org/entity/Q100335061', 'http://www.wikidata.org/entity/Q100335062', 'http://www.wikidata.org/entity/Q100335066', 'http://www.wikidata.org/entity/Q100335068', 'http://www.wikidata.org/entity/Q100335070', 'http://www.wikidata.org/entity/Q100335073', 'http://www.wikidata.org/entity/Q100335074', 'http://www.wikidata.org/entity/Q100335078', 'http://www.wikidata.org/entity/Q100335081', 'http://www.wikidata.org/entity/Q100335082', 'http://www.wikidata.org/entity/Q100335085', 'http://www.wikidata.org/entity/Q100335090', 'http://www.wikidata.org/entity/Q100335093', 'http://www.wikidata.org/entity/Q100335095', 'http://www.wikidata.org/entity/Q100335098', 'http://www.wikidata.org/entity/Q100335102', 'http://www.wikidata.org/entity/Q100335104', 'http://www.wikidata.org/entity/Q100335107', 'http://www.wikidata.org/entity/Q100335110', 'http://www.wikidata.org/entity/Q100335112', 'http://www.wikidata.org/entity/Q100335115', 'http://www.wikidata.org/entity/Q100335118', 'http://www.wikidata.org/entity/Q100335120', 'http://www.wikidata.org/entity/Q100335123', 'http://www.wikidata.org/entity/Q100335126', 'http://www.wikidata.org/entity/Q100335129', 'http://www.wikidata.org/entity/Q100335132', 'http://www.wikidata.org/entity/Q100335134', 'http://www.wikidata.org/entity/Q100335136', 'http://www.wikidata.org/entity/Q100335139', 'http://www.wikidata.org/entity/Q100335141', 'http://www.wikidata.org/entity/Q100335144', 'http://www.wikidata.org/entity/Q100335147', 'http://www.wikidata.org/entity/Q100335148', 'http://www.wikidata.org/entity/Q100335152', 'http://www.wikidata.org/entity/Q100335154', 'http://www.wikidata.org/entity/Q100335157', 'http://www.wikidata.org/entity/Q100335159', 'http://www.wikidata.org/entity/Q100335161', 'http://www.wikidata.org/entity/Q100335163', 'http://www.wikidata.org/entity/Q100335164', 'http://www.wikidata.org/entity/Q100335166', 'http://www.wikidata.org/entity/Q100335168', 'http://www.wikidata.org/entity/Q100335170', 'http://www.wikidata.org/entity/Q100335174', 'http://www.wikidata.org/entity/Q100335176', 'http://www.wikidata.org/entity/Q100335178', 'http://www.wikidata.org/entity/Q100335180', 'http://www.wikidata.org/entity/Q100335181', 'http://www.wikidata.org/entity/Q100335183', 'http://www.wikidata.org/entity/Q100335185', 'http://www.wikidata.org/entity/Q100335187', 'http://www.wikidata.org/entity/Q100335189', 'http://www.wikidata.org/entity/Q100335191', 'http://www.wikidata.org/entity/Q100335194', 'http://www.wikidata.org/entity/Q100335196', 'http://www.wikidata.org/entity/Q100335198', 'http://www.wikidata.org/entity/Q100335200', 'http://www.wikidata.org/entity/Q100335202', 'http://www.wikidata.org/entity/Q100335204', 'http://www.wikidata.org/entity/Q100335206', 'http://www.wikidata.org/entity/Q100335208', 'http://www.wikidata.org/entity/Q100335209', 'http://www.wikidata.org/entity/Q100335213', 'http://www.wikidata.org/entity/Q100335214', 'http://www.wikidata.org/entity/Q100335216', 'http://www.wikidata.org/entity/Q100335218', 'http://www.wikidata.org/entity/Q100335220', 'http://www.wikidata.org/entity/Q100335222', 'http://www.wikidata.org/entity/Q100335223', 'http://www.wikidata.org/entity/Q100335225', 'http://www.wikidata.org/entity/Q100335227', 'http://www.wikidata.org/entity/Q100335230', 'http://www.wikidata.org/entity/Q100335232', 'http://www.wikidata.org/entity/Q100335233', 'http://www.wikidata.org/entity/Q100335236', 'http://www.wikidata.org/entity/Q100335238', 'http://www.wikidata.org/entity/Q100335240', 'http://www.wikidata.org/entity/Q100335241', 'http://www.wikidata.org/entity/Q100335243', 'http://www.wikidata.org/entity/Q100335245', 'http://www.wikidata.org/entity/Q100335248', 'http://www.wikidata.org/entity/Q100335249', 'http://www.wikidata.org/entity/Q100335251', 'http://www.wikidata.org/entity/Q100335253', 'http://www.wikidata.org/entity/Q100335255', 'http://www.wikidata.org/entity/Q100335257', 'http://www.wikidata.org/entity/Q100335259', 'http://www.wikidata.org/entity/Q100335262', 'http://www.wikidata.org/entity/Q100335263', 'http://www.wikidata.org/entity/Q100335265', 'http://www.wikidata.org/entity/Q100335267', 'http://www.wikidata.org/entity/Q100335269', 'http://www.wikidata.org/entity/Q100335270', 'http://www.wikidata.org/entity/Q100335272', 'http://www.wikidata.org/entity/Q100335274', 'http://www.wikidata.org/entity/Q100335276', 'http://www.wikidata.org/entity/Q100335278', 'http://www.wikidata.org/entity/Q100335280', 'http://www.wikidata.org/entity/Q100335282', 'http://www.wikidata.org/entity/Q100335285', 'http://www.wikidata.org/entity/Q100335286', 'http://www.wikidata.org/entity/Q100335288', 'http://www.wikidata.org/entity/Q100335290', 'http://www.wikidata.org/entity/Q100335293', 'http://www.wikidata.org/entity/Q100335295', 'http://www.wikidata.org/entity/Q100335297', 'http://www.wikidata.org/entity/Q100335299', 'http://www.wikidata.org/entity/Q100335301', 'http://www.wikidata.org/entity/Q100335304', 'http://www.wikidata.org/entity/Q100335306', 'http://www.wikidata.org/entity/Q100335307', 'http://www.wikidata.org/entity/Q100335309', 'http://www.wikidata.org/entity/Q100335312', 'http://www.wikidata.org/entity/Q100335315', 'http://www.wikidata.org/entity/Q100335317', 'http://www.wikidata.org/entity/Q100335320', 'http://www.wikidata.org/entity/Q100335324', 'http://www.wikidata.org/entity/Q100335328', 'http://www.wikidata.org/entity/Q100335331', 'http://www.wikidata.org/entity/Q100335334', 'http://www.wikidata.org/entity/Q100335337', 'http://www.wikidata.org/entity/Q100335341', 'http://www.wikidata.org/entity/Q100335344', 'http://www.wikidata.org/entity/Q100335346', 'http://www.wikidata.org/entity/Q100335352', 'http://www.wikidata.org/entity/Q100335356', 'http://www.wikidata.org/entity/Q100335359', 'http://www.wikidata.org/entity/Q100335362', 'http://www.wikidata.org/entity/Q100335365', 'http://www.wikidata.org/entity/Q100335368', 'http://www.wikidata.org/entity/Q100335371', 'http://www.wikidata.org/entity/Q100335374', 'http://www.wikidata.org/entity/Q100335377', 'http://www.wikidata.org/entity/Q100335379', 'http://www.wikidata.org/entity/Q100335383', 'http://www.wikidata.org/entity/Q100335387', 'http://www.wikidata.org/entity/Q100335390', 'http://www.wikidata.org/entity/Q100335393', 'http://www.wikidata.org/entity/Q100335396', 'http://www.wikidata.org/entity/Q100335399', 'http://www.wikidata.org/entity/Q100335403', 'http://www.wikidata.org/entity/Q100335405', 'http://www.wikidata.org/entity/Q100335408', 'http://www.wikidata.org/entity/Q100335411', 'http://www.wikidata.org/entity/Q100335415', 'http://www.wikidata.org/entity/Q100335418', 'http://www.wikidata.org/entity/Q100335421', 'http://www.wikidata.org/entity/Q100335424', 'http://www.wikidata.org/entity/Q100335428', 'http://www.wikidata.org/entity/Q100335431', 'http://www.wikidata.org/entity/Q100335434', 'http://www.wikidata.org/entity/Q100335437', 'http://www.wikidata.org/entity/Q100335440', 'http://www.wikidata.org/entity/Q100335444', 'http://www.wikidata.org/entity/Q100335446', 'http://www.wikidata.org/entity/Q100335450', 'http://www.wikidata.org/entity/Q100335453', 'http://www.wikidata.org/entity/Q100335455', 'http://www.wikidata.org/entity/Q100335458', 'http://www.wikidata.org/entity/Q100335461', 'http://www.wikidata.org/entity/Q100335463', 'http://www.wikidata.org/entity/Q100335466', 'http://www.wikidata.org/entity/Q100335469', 'http://www.wikidata.org/entity/Q100335472', 'http://www.wikidata.org/entity/Q100335475', 'http://www.wikidata.org/entity/Q100335479', 'http://www.wikidata.org/entity/Q100335482', 'http://www.wikidata.org/entity/Q100335485', 'http://www.wikidata.org/entity/Q100335488', 'http://www.wikidata.org/entity/Q100335491', 'http://www.wikidata.org/entity/Q100335494', 'http://www.wikidata.org/entity/Q100335497', 'http://www.wikidata.org/entity/Q100335501', 'http://www.wikidata.org/entity/Q100335504', 'http://www.wikidata.org/entity/Q100335507', 'http://www.wikidata.org/entity/Q100335508', 'http://www.wikidata.org/entity/Q100335512', 'http://www.wikidata.org/entity/Q100335515', 'http://www.wikidata.org/entity/Q100335518', 'http://www.wikidata.org/entity/Q100335521', 'http://www.wikidata.org/entity/Q100335524', 'http://www.wikidata.org/entity/Q100335528', 'http://www.wikidata.org/entity/Q100335531', 'http://www.wikidata.org/entity/Q100335534', 'http://www.wikidata.org/entity/Q100335540', 'http://www.wikidata.org/entity/Q100335542', 'http://www.wikidata.org/entity/Q100335545', 'http://www.wikidata.org/entity/Q100335547', 'http://www.wikidata.org/entity/Q100335550', 'http://www.wikidata.org/entity/Q100335553', 'http://www.wikidata.org/entity/Q100335556', 'http://www.wikidata.org/entity/Q100335560', 'http://www.wikidata.org/entity/Q100335563', 'http://www.wikidata.org/entity/Q100335566', 'http://www.wikidata.org/entity/Q100335570', 'http://www.wikidata.org/entity/Q100335573', 'http://www.wikidata.org/entity/Q100335575', 'http://www.wikidata.org/entity/Q100335578', 'http://www.wikidata.org/entity/Q100335581', 'http://www.wikidata.org/entity/Q100335584', 'http://www.wikidata.org/entity/Q100335588', 'http://www.wikidata.org/entity/Q100335591', 'http://www.wikidata.org/entity/Q100335594', 'http://www.wikidata.org/entity/Q100335596', 'http://www.wikidata.org/entity/Q100335599', 'http://www.wikidata.org/entity/Q100335602', 'http://www.wikidata.org/entity/Q100335605', 'http://www.wikidata.org/entity/Q100335608', 'http://www.wikidata.org/entity/Q100335611', 'http://www.wikidata.org/entity/Q100335614', 'http://www.wikidata.org/entity/Q100335617', 'http://www.wikidata.org/entity/Q100335621', 'http://www.wikidata.org/entity/Q100335624', 'http://www.wikidata.org/entity/Q100335626', 'http://www.wikidata.org/entity/Q100335629', 'http://www.wikidata.org/entity/Q100335632', 'http://www.wikidata.org/entity/Q100335634', 'http://www.wikidata.org/entity/Q100335637', 'http://www.wikidata.org/entity/Q100335641', 'http://www.wikidata.org/entity/Q100335643', 'http://www.wikidata.org/entity/Q100335647', 'http://www.wikidata.org/entity/Q100335649', 'http://www.wikidata.org/entity/Q100335652', 'http://www.wikidata.org/entity/Q100335656', 'http://www.wikidata.org/entity/Q100335659', 'http://www.wikidata.org/entity/Q100335662', 'http://www.wikidata.org/entity/Q100335665', 'http://www.wikidata.org/entity/Q100335668', 'http://www.wikidata.org/entity/Q100335672', 'http://www.wikidata.org/entity/Q100335675', 'http://www.wikidata.org/entity/Q100335677', 'http://www.wikidata.org/entity/Q100335681', 'http://www.wikidata.org/entity/Q100335684', 'http://www.wikidata.org/entity/Q100335687', 'http://www.wikidata.org/entity/Q100335690', 'http://www.wikidata.org/entity/Q100335693', 'http://www.wikidata.org/entity/Q100335696', 'http://www.wikidata.org/entity/Q100335700', 'http://www.wikidata.org/entity/Q100335703', 'http://www.wikidata.org/entity/Q100335706', 'http://www.wikidata.org/entity/Q100335708', 'http://www.wikidata.org/entity/Q100335711', 'http://www.wikidata.org/entity/Q100335714', 'http://www.wikidata.org/entity/Q100335718', 'http://www.wikidata.org/entity/Q100335722', 'http://www.wikidata.org/entity/Q100335726', 'http://www.wikidata.org/entity/Q100335729', 'http://www.wikidata.org/entity/Q100335731', 'http://www.wikidata.org/entity/Q100335734', 'http://www.wikidata.org/entity/Q100335737', 'http://www.wikidata.org/entity/Q100335740', 'http://www.wikidata.org/entity/Q100335742', 'http://www.wikidata.org/entity/Q100335745', 'http://www.wikidata.org/entity/Q100335748', 'http://www.wikidata.org/entity/Q100335751', 'http://www.wikidata.org/entity/Q100335754', 'http://www.wikidata.org/entity/Q100335757', 'http://www.wikidata.org/entity/Q100335759', 'http://www.wikidata.org/entity/Q100335762', 'http://www.wikidata.org/entity/Q100335765', 'http://www.wikidata.org/entity/Q100335768', 'http://www.wikidata.org/entity/Q100335771', 'http://www.wikidata.org/entity/Q100335775', 'http://www.wikidata.org/entity/Q100335779', 'http://www.wikidata.org/entity/Q100335782', 'http://www.wikidata.org/entity/Q100335785', 'http://www.wikidata.org/entity/Q100335788', 'http://www.wikidata.org/entity/Q100335791', 'http://www.wikidata.org/entity/Q100335794', 'http://www.wikidata.org/entity/Q100335797', 'http://www.wikidata.org/entity/Q100335800', 'http://www.wikidata.org/entity/Q100335804', 'http://www.wikidata.org/entity/Q100335808', 'http://www.wikidata.org/entity/Q100335811', 'http://www.wikidata.org/entity/Q100335814', 'http://www.wikidata.org/entity/Q100335817', 'http://www.wikidata.org/entity/Q100335820', 'http://www.wikidata.org/entity/Q100335823', 'http://www.wikidata.org/entity/Q100335826', 'http://www.wikidata.org/entity/Q100335829', 'http://www.wikidata.org/entity/Q100335832', 'http://www.wikidata.org/entity/Q100335836', 'http://www.wikidata.org/entity/Q100335839', 'http://www.wikidata.org/entity/Q100335843', 'http://www.wikidata.org/entity/Q100335846', 'http://www.wikidata.org/entity/Q100335849', 'http://www.wikidata.org/entity/Q100335851', 'http://www.wikidata.org/entity/Q100335858', 'http://www.wikidata.org/entity/Q100335861', 'http://www.wikidata.org/entity/Q100335864', 'http://www.wikidata.org/entity/Q100335867', 'http://www.wikidata.org/entity/Q100335870', 'http://www.wikidata.org/entity/Q100335873', 'http://www.wikidata.org/entity/Q100335877', 'http://www.wikidata.org/entity/Q100335879', 'http://www.wikidata.org/entity/Q100335883', 'http://www.wikidata.org/entity/Q100335887', 'http://www.wikidata.org/entity/Q100335888', 'http://www.wikidata.org/entity/Q100335893', 'http://www.wikidata.org/entity/Q100335895', 'http://www.wikidata.org/entity/Q100335897', 'http://www.wikidata.org/entity/Q100335900', 'http://www.wikidata.org/entity/Q100335904', 'http://www.wikidata.org/entity/Q100335906', 'http://www.wikidata.org/entity/Q100335909', 'http://www.wikidata.org/entity/Q100335913', 'http://www.wikidata.org/entity/Q100335916', 'http://www.wikidata.org/entity/Q100335920', 'http://www.wikidata.org/entity/Q100335922', 'http://www.wikidata.org/entity/Q100335924', 'http://www.wikidata.org/entity/Q100335926', 'http://www.wikidata.org/entity/Q100335929', 'http://www.wikidata.org/entity/Q100335931', 'http://www.wikidata.org/entity/Q100335932', 'http://www.wikidata.org/entity/Q100335934', 'http://www.wikidata.org/entity/Q100335936', 'http://www.wikidata.org/entity/Q100335939', 'http://www.wikidata.org/entity/Q100335940', 'http://www.wikidata.org/entity/Q100335943', 'http://www.wikidata.org/entity/Q100335945', 'http://www.wikidata.org/entity/Q100335947', 'http://www.wikidata.org/entity/Q100335949', 'http://www.wikidata.org/entity/Q100335951', 'http://www.wikidata.org/entity/Q100335954', 'http://www.wikidata.org/entity/Q100335955', 'http://www.wikidata.org/entity/Q100335958', 'http://www.wikidata.org/entity/Q100335959', 'http://www.wikidata.org/entity/Q100335961', 'http://www.wikidata.org/entity/Q100335963', 'http://www.wikidata.org/entity/Q100335965', 'http://www.wikidata.org/entity/Q100335967', 'http://www.wikidata.org/entity/Q100335969', 'http://www.wikidata.org/entity/Q100335970', 'http://www.wikidata.org/entity/Q100335973', 'http://www.wikidata.org/entity/Q100335975', 'http://www.wikidata.org/entity/Q100335976', 'http://www.wikidata.org/entity/Q100335978', 'http://www.wikidata.org/entity/Q100335980', 'http://www.wikidata.org/entity/Q100335982', 'http://www.wikidata.org/entity/Q100335983', 'http://www.wikidata.org/entity/Q100335985', 'http://www.wikidata.org/entity/Q100335987', 'http://www.wikidata.org/entity/Q100335990', 'http://www.wikidata.org/entity/Q100335992', 'http://www.wikidata.org/entity/Q100335994', 'http://www.wikidata.org/entity/Q100335995', 'http://www.wikidata.org/entity/Q100335997', 'http://www.wikidata.org/entity/Q100335998', 'http://www.wikidata.org/entity/Q100336000', 'http://www.wikidata.org/entity/Q100336001', 'http://www.wikidata.org/entity/Q100336004', 'http://www.wikidata.org/entity/Q100336006', 'http://www.wikidata.org/entity/Q100336007', 'http://www.wikidata.org/entity/Q100336009', 'http://www.wikidata.org/entity/Q100336011', 'http://www.wikidata.org/entity/Q100336012', 'http://www.wikidata.org/entity/Q100336014', 'http://www.wikidata.org/entity/Q100336016', 'http://www.wikidata.org/entity/Q100336018', 'http://www.wikidata.org/entity/Q100336020', 'http://www.wikidata.org/entity/Q100336022', 'http:</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['17075400', 'http://www.wikidata.org/entity/Q159']</t>
+          <t>['http://www.wikidata.org/entity/Q20494829']</t>
         </is>
       </c>
       <c r="D80" t="b">
@@ -2038,20 +2038,80 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>To which countries does the Himalayan mountain system extend?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+        </is>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>What is the largest country in the world?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q124003554']</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>['17075400', 'http://www.wikidata.org/entity/Q159']</t>
+        </is>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+        </is>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>Who created Goofy?</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>['http://www.wikidata.org/entity/Q2420722']</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>['http://www.wikidata.org/entity/Q2420722']</t>
         </is>
       </c>
-      <c r="D81" t="b">
+      <c r="D84" t="b">
         <v>1</v>
       </c>
     </row>
